--- a/Documents/Utility Charts.xlsx
+++ b/Documents/Utility Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -1264,604 +1264,604 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="101">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14.499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>27.500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>28.000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>28.499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>28.999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>32.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>46.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>49.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>52.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>54.500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>55.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>55.500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>56.000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>56.499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>56.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>57.499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>57.999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>58.5</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>60.5</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>64.5</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>65.5</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>68.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>69.5</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>70.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>71.5</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>73.5</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>74.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>75.5</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>76.5</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>77.5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>78.5</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>79.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>80.5</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>81.5</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>84.5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>85.5</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>86.5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>88.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>89.5</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>90.5</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>91.5</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>93.5</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>94.5</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>95.5</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>99.5</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,604 +1876,604 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31818181818181812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.40476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.40909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.41666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.43103448275862066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.43548387096774194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43939393939393939</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44594594594594594</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.44871794871794873</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.45121951219512196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45238095238095238</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45348837209302323</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45744680851063829</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45918367346938777</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46078431372549022</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.46226415094339623</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46296296296296297</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.4642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.46491228070175439</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.46551724137931033</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46610169491525422</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.46721311475409838</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46774193548387094</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.46825396825396826</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.46923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.46969696969696972</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47014925373134331</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.47101449275362317</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.47142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47183098591549294</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.47222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.4726027397260274</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.47297297297297297</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.47333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.47368421052631576</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.47402597402597402</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.47435897435897434</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.47468354430379744</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.47530864197530864</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.47560975609756095</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4759036144578313</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47647058823529409</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47674418604651164</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.47701149425287359</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.47752808988764045</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47802197802197804</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.47826086956521741</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.478494623655914</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.47872340425531917</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.47894736842105262</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.47916666666666669</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47938144329896909</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.47959183673469385</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.47979797979797978</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="101">
+                  <c:v>0.48019801980198018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48039215686274511</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.48058252427184467</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.48076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.48095238095238096</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.48113207547169812</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.48130841121495327</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.48148148148148151</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.48165137614678899</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.48181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.481981981981982</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.48214285714285715</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.48230088495575218</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.48245614035087719</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.4826086956521739</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.48275862068965519</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.48290598290598291</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.48305084745762711</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.48319327731092437</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.48333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.48347107438016529</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.48360655737704916</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.48373983739837401</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.4838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.48412698412698413</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.48425196850393704</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.484375</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.48449612403100772</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.48461538461538461</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.48473282442748089</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.48484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.48496240601503759</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.48507462686567165</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.48518518518518516</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.48540145985401462</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.48550724637681159</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.48561151079136688</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.48571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.48581560283687941</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.4859154929577465</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.48601398601398599</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.4861111111111111</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.48620689655172411</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.4863013698630137</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.48639455782312924</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.48648648648648651</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.48657718120805371</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.48666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.48675496688741721</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.48684210526315791</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.48692810457516339</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.48701298701298701</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.48709677419354841</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.48717948717948717</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.48726114649681529</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.48734177215189872</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.48742138364779874</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.48749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.48757763975155277</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.48765432098765432</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.48773006134969327</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.48780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.48787878787878786</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.48795180722891568</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.4880239520958084</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.48809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.48816568047337278</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.48823529411764705</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.48830409356725146</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.48837209302325579</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.48843930635838151</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.4885057471264368</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.48857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.48863636363636365</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.48870056497175141</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.4887640449438202</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.48882681564245811</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.48888888888888887</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.4889502762430939</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.48901098901098899</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.48907103825136611</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.4891304347826087</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.48918918918918919</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.489247311827957</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.48930481283422461</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.48936170212765956</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.48941798941798942</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.48947368421052634</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.48952879581151831</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.48958333333333331</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.48963730569948188</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.48969072164948452</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.48974358974358972</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.48979591836734693</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.48984771573604063</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.48989898989898989</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.4899497487437186</c:v>
+                </c:pt>
+                <c:pt idx="200">
                   <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49714285714285716</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4975</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.49777777777777776</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.498</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49833333333333335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.49846153846153846</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.49857142857142855</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.49866666666666665</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.49875000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.49882352941176472</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.49888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.49894736842105264</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.499</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.49904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.49909090909090909</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.49913043478260871</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.49916666666666665</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.49919999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.49923076923076926</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.49925925925925924</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.49928571428571428</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.49931034482758618</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.49933333333333335</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.4993548387096774</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.49937500000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.49939393939393939</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.49941176470588233</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.49942857142857144</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.49944444444444447</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.49945945945945946</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.49947368421052629</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.49948717948717947</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.4995</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.49951219512195122</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.49952380952380954</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.49953488372093025</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.49954545454545457</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.49955555555555553</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.49956521739130433</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.49957446808510636</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49958333333333332</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.49959183673469387</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.49959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.49960784313725493</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.49961538461538463</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.49962264150943397</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.49962962962962965</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.49963636363636366</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.49964285714285717</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.49964912280701756</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.49965517241379309</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.49966101694915255</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.49966666666666665</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.499672131147541</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.49967741935483873</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.49968253968253967</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.49968750000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.49969230769230771</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.4996969696969697</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.49970149253731344</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.49970588235294117</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.49971014492753624</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.49971428571428572</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.49971830985915494</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.49972222222222223</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.4997260273972603</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.49972972972972973</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.49973333333333331</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.49973684210526315</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.49974025974025976</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.49974358974358973</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.499746835443038</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.49975000000000003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.49975308641975308</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.49975609756097561</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.49975903614457834</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.49976190476190474</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.49976470588235294</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.49976744186046512</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.49977011494252871</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.49977272727272726</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.49977528089887641</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.49977777777777777</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.4997802197802198</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.49978260869565216</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.49978494623655911</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.49978723404255321</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.49978947368421051</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.49979166666666669</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.4997938144329897</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.49979591836734694</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.4997979797979798</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.49980000000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.4998019801980198</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.49980392156862746</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.49980582524271844</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.49980769230769229</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.49980952380952381</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.49981132075471696</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.49981308411214953</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.49981481481481482</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.49981651376146791</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.49981818181818183</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.49981981981981982</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.49982142857142858</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.49982300884955755</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.49982456140350878</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.49982608695652175</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.49982758620689655</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.49982905982905984</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.49983050847457627</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.49983193277310922</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.49983333333333335</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.49983471074380165</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.49983606557377047</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.49983739837398372</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.49983870967741933</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.49984000000000001</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.49984126984126986</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.49984251968503934</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.49984374999999998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.49984496124031008</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.49984615384615383</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.4998473282442748</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.49984848484848488</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.49984962406015038</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.49985074626865672</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.49985185185185182</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.49985294117647061</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.49985401459854012</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.49985507246376809</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.49985611510791367</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.49985714285714283</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.49985815602836881</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.49985915492957744</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.49986013986013988</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.49986111111111109</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.49986206896551721</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.49986301369863012</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.49986394557823127</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.49986486486486487</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.49986577181208053</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.49986666666666668</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.49986754966887414</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.49986842105263157</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.49986928104575162</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.49987012987012985</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.49987096774193546</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.49987179487179489</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.49987261146496814</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.499873417721519</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.49987421383647801</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.49987500000000001</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.49987577639751551</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.49987654320987657</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.49987730061349694</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.4998780487804878</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.49987878787878787</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.49987951807228914</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.49988023952095806</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.49988095238095237</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.49988165680473373</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.49988235294117644</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.49988304093567254</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.49988372093023253</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.49988439306358379</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.49988505747126438</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.49988571428571427</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.49988636363636363</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.4998870056497175</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.49988764044943818</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.49988826815642456</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.49988888888888888</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.49988950276243094</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.4998901098901099</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.49989071038251365</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.49989130434782608</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.49989189189189187</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.49989247311827956</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.49989304812834223</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.4998936170212766</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.49989417989417989</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.49989473684210528</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.49989528795811516</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.49989583333333332</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.4998963730569948</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.49989690721649482</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.4998974358974359</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.49989795918367347</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.49989847715736041</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.4998989898989899</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.49989949748743717</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.49990000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8547,11 +8547,11 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A2:A33" si="0">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <f>MAX(MIN($E$4 * A2 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B2:B33" si="1">MAX(MIN($E$4 * A2 + $E$5, 1), 0)</f>
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -8563,22 +8563,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f>MAX(MIN($E$4 * A3 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>MAX(MIN($E$4 * A4 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.98</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -8590,11 +8590,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <f>MAX(MIN($E$4 * A5 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -8606,1971 +8606,1971 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f>MAX(MIN($E$4 * A6 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <f>MAX(MIN($E$4 * A7 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f>MAX(MIN($E$4 * A8 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="B9" s="3">
-        <f>MAX(MIN($E$4 * A9 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f>MAX(MIN($E$4 * A10 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f>MAX(MIN($E$4 * A11 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>MAX(MIN($E$4 * A12 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <f>MAX(MIN($E$4 * A13 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f>MAX(MIN($E$4 * A14 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f>MAX(MIN($E$4 * A15 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>14.000000000000002</v>
       </c>
       <c r="B16" s="3">
-        <f>MAX(MIN($E$4 * A16 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <f>MAX(MIN($E$4 * A17 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <f>MAX(MIN($E$4 * A18 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <f>MAX(MIN($E$4 * A19 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <f>MAX(MIN($E$4 * A20 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <f>MAX(MIN($E$4 * A21 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.81</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <f>MAX(MIN($E$4 * A22 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <f>MAX(MIN($E$4 * A23 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <f>MAX(MIN($E$4 * A24 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <f>MAX(MIN($E$4 * A25 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <f>MAX(MIN($E$4 * A26 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <f>MAX(MIN($E$4 * A27 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <f>MAX(MIN($E$4 * A28 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <f>MAX(MIN($E$4 * A29 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.73</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>28.000000000000004</v>
       </c>
       <c r="B30" s="3">
-        <f>MAX(MIN($E$4 * A30 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>28.999999999999996</v>
       </c>
       <c r="B31" s="3">
-        <f>MAX(MIN($E$4 * A31 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <f>MAX(MIN($E$4 * A32 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <f>MAX(MIN($E$4 * A33 + $E$5, 1), 0)</f>
+        <f t="shared" si="1"/>
         <v>0.69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A34:A65" si="2">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <f>MAX(MIN($E$4 * A34 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B34:B65" si="3">MAX(MIN($E$4 * A34 + $E$5, 1), 0)</f>
         <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <f>MAX(MIN($E$4 * A35 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <f>MAX(MIN($E$4 * A36 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <f>MAX(MIN($E$4 * A37 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <f>MAX(MIN($E$4 * A38 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f>MAX(MIN($E$4 * A39 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <f>MAX(MIN($E$4 * A40 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <f>MAX(MIN($E$4 * A41 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f>MAX(MIN($E$4 * A42 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <f>MAX(MIN($E$4 * A43 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <f>MAX(MIN($E$4 * A44 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <f>MAX(MIN($E$4 * A45 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <f>MAX(MIN($E$4 * A46 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <f>MAX(MIN($E$4 * A47 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <f>MAX(MIN($E$4 * A48 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <f>MAX(MIN($E$4 * A49 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <f>MAX(MIN($E$4 * A50 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <f>MAX(MIN($E$4 * A51 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <f>MAX(MIN($E$4 * A52 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B53" s="3">
-        <f>MAX(MIN($E$4 * A53 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <f>MAX(MIN($E$4 * A54 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B55" s="3">
-        <f>MAX(MIN($E$4 * A55 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <f>MAX(MIN($E$4 * A56 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>55.000000000000007</v>
       </c>
       <c r="B57" s="3">
-        <f>MAX(MIN($E$4 * A57 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>56.000000000000007</v>
       </c>
       <c r="B58" s="3">
-        <f>MAX(MIN($E$4 * A58 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>56.999999999999993</v>
       </c>
       <c r="B59" s="3">
-        <f>MAX(MIN($E$4 * A59 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>57.999999999999993</v>
       </c>
       <c r="B60" s="3">
-        <f>MAX(MIN($E$4 * A60 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B61" s="3">
-        <f>MAX(MIN($E$4 * A61 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <f>MAX(MIN($E$4 * A62 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B63" s="3">
-        <f>MAX(MIN($E$4 * A63 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <f>MAX(MIN($E$4 * A64 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B65" s="3">
-        <f>MAX(MIN($E$4 * A65 + $E$5, 1), 0)</f>
+        <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A66:A102" si="4">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <f>MAX(MIN($E$4 * A66 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B66:B97" si="5">MAX(MIN($E$4 * A66 + $E$5, 1), 0)</f>
         <v>0.36</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="B67" s="3">
-        <f>MAX(MIN($E$4 * A67 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <f>MAX(MIN($E$4 * A68 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="B69" s="3">
-        <f>MAX(MIN($E$4 * A69 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <f>MAX(MIN($E$4 * A70 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B71" s="3">
-        <f>MAX(MIN($E$4 * A71 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.30999999999999994</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <f>MAX(MIN($E$4 * A72 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B73" s="3">
-        <f>MAX(MIN($E$4 * A73 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <f>MAX(MIN($E$4 * A74 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B75" s="3">
-        <f>MAX(MIN($E$4 * A75 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <f>MAX(MIN($E$4 * A76 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B77" s="3">
-        <f>MAX(MIN($E$4 * A77 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <f>MAX(MIN($E$4 * A78 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.24</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B79" s="3">
-        <f>MAX(MIN($E$4 * A79 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <f>MAX(MIN($E$4 * A80 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B81" s="3">
-        <f>MAX(MIN($E$4 * A81 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.20999999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <f>MAX(MIN($E$4 * A82 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B83" s="3">
-        <f>MAX(MIN($E$4 * A83 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.18999999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <f>MAX(MIN($E$4 * A84 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.17999999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B85" s="3">
-        <f>MAX(MIN($E$4 * A85 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.16999999999999993</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <f>MAX(MIN($E$4 * A86 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B87" s="3">
-        <f>MAX(MIN($E$4 * A87 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <f>MAX(MIN($E$4 * A88 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B89" s="3">
-        <f>MAX(MIN($E$4 * A89 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.13</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <f>MAX(MIN($E$4 * A90 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B91" s="3">
-        <f>MAX(MIN($E$4 * A91 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>0.10999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <f>MAX(MIN($E$4 * A92 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B93" s="3">
-        <f>MAX(MIN($E$4 * A93 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>8.9999999999999969E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <f>MAX(MIN($E$4 * A94 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>7.999999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B95" s="3">
-        <f>MAX(MIN($E$4 * A95 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>6.9999999999999951E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <f>MAX(MIN($E$4 * A96 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>5.9999999999999942E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B97" s="3">
-        <f>MAX(MIN($E$4 * A97 + $E$5, 1), 0)</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999933E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <f>MAX(MIN($E$4 * A98 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B98:B129" si="6">MAX(MIN($E$4 * A98 + $E$5, 1), 0)</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B99" s="3">
-        <f>MAX(MIN($E$4 * A99 + $E$5, 1), 0)</f>
+        <f t="shared" si="6"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <f>MAX(MIN($E$4 * A100 + $E$5, 1), 0)</f>
+        <f t="shared" si="6"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B101" s="3">
-        <f>MAX(MIN($E$4 * A101 + $E$5, 1), 0)</f>
+        <f t="shared" si="6"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <f>$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <f>MAX(MIN($E$4 * A102 + $E$5, 1), 0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <f t="shared" ref="A103:A166" si="0">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A103:A166" si="7">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
         <v>101</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" ref="B103:B166" si="1">MAX(MIN($E$4 * A103 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B103:B166" si="8">MAX(MIN($E$4 * A103 + $E$5, 1), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>109.00000000000001</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110.00000000000001</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>111.00000000000001</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>112.00000000000001</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>112.99999999999999</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>113.99999999999999</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>114.99999999999999</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>115.99999999999999</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>161</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <f t="shared" ref="A167:A202" si="2">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A167:A202" si="9">$E$1 + (ROW() - 2) / 100 * ($E$2-$E$1)</f>
         <v>165</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" ref="B167:B202" si="3">MAX(MIN($E$4 * A167 + $E$5, 1), 0)</f>
+        <f t="shared" ref="B167:B202" si="10">MAX(MIN($E$4 * A167 + $E$5, 1), 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>167</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>169</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>173</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>174</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>176</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>177</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>181</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>182</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>183</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>185</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>189</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>191</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>194</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>196</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>197</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>198</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>199</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10585,8 +10585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10632,28 +10632,28 @@
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A66" si="0">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B66" si="1">MAX(MIN($E$4 * (A3 - $E$6)^$E$5 + $E$7, 1), 0)</f>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="1"/>
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>0</v>
@@ -10665,11 +10665,11 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="1"/>
-        <v>0.49333333333333335</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -10681,11 +10681,11 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="1"/>
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>2</v>
@@ -10697,11 +10697,11 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="1"/>
-        <v>0.496</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>3</v>
@@ -10713,1951 +10713,1951 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="1"/>
-        <v>0.49666666666666665</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
-        <v>3.5000000000000004</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="1"/>
-        <v>0.49714285714285716</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="1"/>
-        <v>0.4975</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="1"/>
-        <v>0.49777777777777776</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="1"/>
-        <v>0.498</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>5.5E-2</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="1"/>
-        <v>0.49818181818181817</v>
+        <v>0.31818181818181812</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="1"/>
-        <v>0.49833333333333335</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="1"/>
-        <v>0.49846153846153846</v>
+        <v>0.34615384615384615</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>7.0000000000000009</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="1"/>
-        <v>0.49857142857142855</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="1"/>
-        <v>0.49866666666666665</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="1"/>
-        <v>0.49875000000000003</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="1"/>
-        <v>0.49882352941176472</v>
+        <v>0.38235294117647056</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="1"/>
-        <v>0.49888888888888888</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="1"/>
-        <v>0.49894736842105264</v>
+        <v>0.39473684210526316</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="1"/>
-        <v>0.499</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>0.105</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="1"/>
-        <v>0.49904761904761907</v>
+        <v>0.40476190476190477</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="1"/>
-        <v>0.49909090909090909</v>
+        <v>0.40909090909090906</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>0.115</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="1"/>
-        <v>0.49913043478260871</v>
+        <v>0.41304347826086957</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0.12</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="1"/>
-        <v>0.49916666666666665</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="1"/>
-        <v>0.49919999999999998</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="1"/>
-        <v>0.49923076923076926</v>
+        <v>0.42307692307692307</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="1"/>
-        <v>0.49925925925925924</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="1"/>
-        <v>0.49928571428571428</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>14.499999999999998</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="1"/>
-        <v>0.49931034482758618</v>
+        <v>0.43103448275862066</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="1"/>
-        <v>0.49933333333333335</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>0.155</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" si="1"/>
-        <v>0.4993548387096774</v>
+        <v>0.43548387096774194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="1"/>
-        <v>0.49937500000000001</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="1"/>
-        <v>0.49939393939393939</v>
+        <v>0.43939393939393939</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="1"/>
-        <v>0.49941176470588233</v>
+        <v>0.44117647058823528</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" si="1"/>
-        <v>0.49942857142857144</v>
+        <v>0.44285714285714284</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="B38" s="3">
         <f t="shared" si="1"/>
-        <v>0.49944444444444447</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>0.185</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" si="1"/>
-        <v>0.49945945945945946</v>
+        <v>0.44594594594594594</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="1"/>
-        <v>0.49947368421052629</v>
+        <v>0.44736842105263158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="B41" s="3">
         <f t="shared" si="1"/>
-        <v>0.49948717948717947</v>
+        <v>0.44871794871794873</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" si="1"/>
-        <v>0.4995</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="B43" s="3">
         <f t="shared" si="1"/>
-        <v>0.49951219512195122</v>
+        <v>0.45121951219512196</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="B44" s="3">
         <f t="shared" si="1"/>
-        <v>0.49952380952380954</v>
+        <v>0.45238095238095238</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>0.215</v>
       </c>
       <c r="B45" s="3">
         <f t="shared" si="1"/>
-        <v>0.49953488372093025</v>
+        <v>0.45348837209302323</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="B46" s="3">
         <f t="shared" si="1"/>
-        <v>0.49954545454545457</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B47" s="3">
         <f t="shared" si="1"/>
-        <v>0.49955555555555553</v>
+        <v>0.45555555555555555</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" si="1"/>
-        <v>0.49956521739130433</v>
+        <v>0.45652173913043481</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="1"/>
-        <v>0.49957446808510636</v>
+        <v>0.45744680851063829</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" si="1"/>
-        <v>0.49958333333333332</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>0.245</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="1"/>
-        <v>0.49959183673469387</v>
+        <v>0.45918367346938777</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="B52" s="3">
         <f t="shared" si="1"/>
-        <v>0.49959999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>0.255</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="1"/>
-        <v>0.49960784313725493</v>
+        <v>0.46078431372549022</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="B54" s="3">
         <f t="shared" si="1"/>
-        <v>0.49961538461538463</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
-        <v>26.5</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="1"/>
-        <v>0.49962264150943397</v>
+        <v>0.46226415094339623</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="1"/>
-        <v>0.49962962962962965</v>
+        <v>0.46296296296296297</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
-        <v>27.500000000000004</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="B57" s="3">
         <f t="shared" si="1"/>
-        <v>0.49963636363636366</v>
+        <v>0.46363636363636362</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
-        <v>28.000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B58" s="3">
         <f t="shared" si="1"/>
-        <v>0.49964285714285717</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
-        <v>28.499999999999996</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="B59" s="3">
         <f t="shared" si="1"/>
-        <v>0.49964912280701756</v>
+        <v>0.46491228070175439</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
-        <v>28.999999999999996</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B60" s="3">
         <f t="shared" si="1"/>
-        <v>0.49965517241379309</v>
+        <v>0.46551724137931033</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
-        <v>29.5</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="B61" s="3">
         <f t="shared" si="1"/>
-        <v>0.49966101694915255</v>
+        <v>0.46610169491525422</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="B62" s="3">
         <f t="shared" si="1"/>
-        <v>0.49966666666666665</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" si="1"/>
-        <v>0.499672131147541</v>
+        <v>0.46721311475409838</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" si="1"/>
-        <v>0.49967741935483873</v>
+        <v>0.46774193548387094</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" si="1"/>
-        <v>0.49968253968253967</v>
+        <v>0.46825396825396826</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="B66" s="3">
         <f t="shared" si="1"/>
-        <v>0.49968750000000001</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <f t="shared" ref="A67:A102" si="2">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
-        <v>32.5</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" ref="B67:B130" si="3">MAX(MIN($E$4 * (A67 - $E$6)^$E$5 + $E$7, 1), 0)</f>
-        <v>0.49969230769230771</v>
+        <f t="shared" ref="B67:B102" si="3">MAX(MIN($E$4 * (A67 - $E$6)^$E$5 + $E$7, 1), 0)</f>
+        <v>0.46923076923076923</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="B68" s="3">
         <f t="shared" si="3"/>
-        <v>0.4996969696969697</v>
+        <v>0.46969696969696972</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <f t="shared" si="2"/>
-        <v>33.5</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="B69" s="3">
         <f t="shared" si="3"/>
-        <v>0.49970149253731344</v>
+        <v>0.47014925373134331</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="B70" s="3">
         <f t="shared" si="3"/>
-        <v>0.49970588235294117</v>
+        <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <f t="shared" si="2"/>
-        <v>34.5</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="3"/>
-        <v>0.49971014492753624</v>
+        <v>0.47101449275362317</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="B72" s="3">
         <f t="shared" si="3"/>
-        <v>0.49971428571428572</v>
+        <v>0.47142857142857142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <f t="shared" si="2"/>
-        <v>35.5</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" si="3"/>
-        <v>0.49971830985915494</v>
+        <v>0.47183098591549294</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="B74" s="3">
         <f t="shared" si="3"/>
-        <v>0.49972222222222223</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <f t="shared" si="2"/>
-        <v>36.5</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" si="3"/>
-        <v>0.4997260273972603</v>
+        <v>0.4726027397260274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="B76" s="3">
         <f t="shared" si="3"/>
-        <v>0.49972972972972973</v>
+        <v>0.47297297297297297</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="B77" s="3">
         <f t="shared" si="3"/>
-        <v>0.49973333333333331</v>
+        <v>0.47333333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="3"/>
-        <v>0.49973684210526315</v>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f t="shared" si="2"/>
-        <v>38.5</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="3"/>
-        <v>0.49974025974025976</v>
+        <v>0.47402597402597402</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>0.39</v>
       </c>
       <c r="B80" s="3">
         <f t="shared" si="3"/>
-        <v>0.49974358974358973</v>
+        <v>0.47435897435897434</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <f t="shared" si="2"/>
-        <v>39.5</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" si="3"/>
-        <v>0.499746835443038</v>
+        <v>0.47468354430379744</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" si="3"/>
-        <v>0.49975000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="B83" s="3">
         <f t="shared" si="3"/>
-        <v>0.49975308641975308</v>
+        <v>0.47530864197530864</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="B84" s="3">
         <f t="shared" si="3"/>
-        <v>0.49975609756097561</v>
+        <v>0.47560975609756095</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <f t="shared" si="2"/>
-        <v>41.5</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="B85" s="3">
         <f t="shared" si="3"/>
-        <v>0.49975903614457834</v>
+        <v>0.4759036144578313</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="B86" s="3">
         <f t="shared" si="3"/>
-        <v>0.49976190476190474</v>
+        <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <f t="shared" si="2"/>
-        <v>42.5</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" si="3"/>
-        <v>0.49976470588235294</v>
+        <v>0.47647058823529409</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="3"/>
-        <v>0.49976744186046512</v>
+        <v>0.47674418604651164</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>0.435</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" si="3"/>
-        <v>0.49977011494252871</v>
+        <v>0.47701149425287359</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="B90" s="3">
         <f t="shared" si="3"/>
-        <v>0.49977272727272726</v>
+        <v>0.47727272727272729</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <f t="shared" si="2"/>
-        <v>44.5</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="B91" s="3">
         <f t="shared" si="3"/>
-        <v>0.49977528089887641</v>
+        <v>0.47752808988764045</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="B92" s="3">
         <f t="shared" si="3"/>
-        <v>0.49977777777777777</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <f t="shared" si="2"/>
-        <v>45.5</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="B93" s="3">
         <f t="shared" si="3"/>
-        <v>0.4997802197802198</v>
+        <v>0.47802197802197804</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="B94" s="3">
         <f t="shared" si="3"/>
-        <v>0.49978260869565216</v>
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <f t="shared" si="2"/>
-        <v>46.5</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" si="3"/>
-        <v>0.49978494623655911</v>
+        <v>0.478494623655914</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" si="3"/>
-        <v>0.49978723404255321</v>
+        <v>0.47872340425531917</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f t="shared" si="2"/>
-        <v>47.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="B97" s="3">
         <f t="shared" si="3"/>
-        <v>0.49978947368421051</v>
+        <v>0.47894736842105262</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="B98" s="3">
         <f t="shared" si="3"/>
-        <v>0.49979166666666669</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f t="shared" si="2"/>
-        <v>48.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="B99" s="3">
         <f t="shared" si="3"/>
-        <v>0.4997938144329897</v>
+        <v>0.47938144329896909</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="B100" s="3">
         <f t="shared" si="3"/>
-        <v>0.49979591836734694</v>
+        <v>0.47959183673469385</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f t="shared" si="2"/>
-        <v>49.5</v>
+        <v>0.495</v>
       </c>
       <c r="B101" s="3">
         <f t="shared" si="3"/>
-        <v>0.4997979797979798</v>
+        <v>0.47979797979797978</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" si="3"/>
-        <v>0.49980000000000002</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f>$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
-        <v>50.5</v>
+        <v>0.505</v>
       </c>
       <c r="B103" s="3">
         <f>MAX(MIN($E$4 * (A103 - $E$6)^$E$5 + $E$7, 1), 0)</f>
-        <v>0.4998019801980198</v>
+        <v>0.48019801980198018</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <f t="shared" ref="A104:A167" si="4">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="B104" s="3">
         <f t="shared" ref="B104:B167" si="5">MAX(MIN($E$4 * (A104 - $E$6)^$E$5 + $E$7, 1), 0)</f>
-        <v>0.49980392156862746</v>
+        <v>0.48039215686274511</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f t="shared" si="4"/>
-        <v>51.5</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="B105" s="3">
         <f t="shared" si="5"/>
-        <v>0.49980582524271844</v>
+        <v>0.48058252427184467</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="B106" s="3">
         <f t="shared" si="5"/>
-        <v>0.49980769230769229</v>
+        <v>0.48076923076923078</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <f t="shared" si="4"/>
-        <v>52.5</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="B107" s="3">
         <f t="shared" si="5"/>
-        <v>0.49980952380952381</v>
+        <v>0.48095238095238096</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>0.53</v>
       </c>
       <c r="B108" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981132075471696</v>
+        <v>0.48113207547169812</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f t="shared" si="4"/>
-        <v>53.5</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981308411214953</v>
+        <v>0.48130841121495327</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981481481481482</v>
+        <v>0.48148148148148151</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <f t="shared" si="4"/>
-        <v>54.500000000000007</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981651376146791</v>
+        <v>0.48165137614678899</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <f t="shared" si="4"/>
-        <v>55.000000000000007</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981818181818183</v>
+        <v>0.48181818181818181</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <f t="shared" si="4"/>
-        <v>55.500000000000007</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="B113" s="3">
         <f t="shared" si="5"/>
-        <v>0.49981981981981982</v>
+        <v>0.481981981981982</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <f t="shared" si="4"/>
-        <v>56.000000000000007</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B114" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982142857142858</v>
+        <v>0.48214285714285715</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <f t="shared" si="4"/>
-        <v>56.499999999999993</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="B115" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982300884955755</v>
+        <v>0.48230088495575218</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <f t="shared" si="4"/>
-        <v>56.999999999999993</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B116" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982456140350878</v>
+        <v>0.48245614035087719</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <f t="shared" si="4"/>
-        <v>57.499999999999993</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982608695652175</v>
+        <v>0.4826086956521739</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <f t="shared" si="4"/>
-        <v>57.999999999999993</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="B118" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982758620689655</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <f t="shared" si="4"/>
-        <v>58.5</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="5"/>
-        <v>0.49982905982905984</v>
+        <v>0.48290598290598291</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>0.59</v>
       </c>
       <c r="B120" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983050847457627</v>
+        <v>0.48305084745762711</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <f t="shared" si="4"/>
-        <v>59.5</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983193277310922</v>
+        <v>0.48319327731092437</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983333333333335</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <f t="shared" si="4"/>
-        <v>60.5</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983471074380165</v>
+        <v>0.48347107438016529</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>0.61</v>
       </c>
       <c r="B124" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983606557377047</v>
+        <v>0.48360655737704916</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <f t="shared" si="4"/>
-        <v>61.5</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="B125" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983739837398372</v>
+        <v>0.48373983739837401</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="5"/>
-        <v>0.49983870967741933</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <f t="shared" si="4"/>
-        <v>62.5</v>
+        <v>0.625</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984126984126986</v>
+        <v>0.48412698412698413</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <f t="shared" si="4"/>
-        <v>63.5</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="B129" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984251968503934</v>
+        <v>0.48425196850393704</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="B130" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984374999999998</v>
+        <v>0.484375</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <f t="shared" si="4"/>
-        <v>64.5</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="B131" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984496124031008</v>
+        <v>0.48449612403100772</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="B132" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984615384615383</v>
+        <v>0.48461538461538461</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <f t="shared" si="4"/>
-        <v>65.5</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="B133" s="3">
         <f t="shared" si="5"/>
-        <v>0.4998473282442748</v>
+        <v>0.48473282442748089</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="B134" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984848484848488</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <f t="shared" si="4"/>
-        <v>66.5</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="B135" s="3">
         <f t="shared" si="5"/>
-        <v>0.49984962406015038</v>
+        <v>0.48496240601503759</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>0.67</v>
       </c>
       <c r="B136" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985074626865672</v>
+        <v>0.48507462686567165</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <f t="shared" si="4"/>
-        <v>67.5</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="B137" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985185185185182</v>
+        <v>0.48518518518518516</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="B138" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985294117647061</v>
+        <v>0.48529411764705882</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <f t="shared" si="4"/>
-        <v>68.5</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="B139" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985401459854012</v>
+        <v>0.48540145985401462</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>0.69</v>
       </c>
       <c r="B140" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985507246376809</v>
+        <v>0.48550724637681159</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <f t="shared" si="4"/>
-        <v>69.5</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="B141" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985611510791367</v>
+        <v>0.48561151079136688</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="B142" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985714285714283</v>
+        <v>0.48571428571428571</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="B143" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985815602836881</v>
+        <v>0.48581560283687941</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>0.71</v>
       </c>
       <c r="B144" s="3">
         <f t="shared" si="5"/>
-        <v>0.49985915492957744</v>
+        <v>0.4859154929577465</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <f t="shared" si="4"/>
-        <v>71.5</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="B145" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986013986013988</v>
+        <v>0.48601398601398599</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="B146" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986111111111109</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <f t="shared" si="4"/>
-        <v>72.5</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="B147" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986206896551721</v>
+        <v>0.48620689655172411</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="B148" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986301369863012</v>
+        <v>0.4863013698630137</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <f t="shared" si="4"/>
-        <v>73.5</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="B149" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986394557823127</v>
+        <v>0.48639455782312924</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="B150" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986486486486487</v>
+        <v>0.48648648648648651</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <f t="shared" si="4"/>
-        <v>74.5</v>
+        <v>0.745</v>
       </c>
       <c r="B151" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986577181208053</v>
+        <v>0.48657718120805371</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="B152" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986666666666668</v>
+        <v>0.48666666666666669</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <f t="shared" si="4"/>
-        <v>75.5</v>
+        <v>0.755</v>
       </c>
       <c r="B153" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986754966887414</v>
+        <v>0.48675496688741721</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="B154" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986842105263157</v>
+        <v>0.48684210526315791</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <f t="shared" si="4"/>
-        <v>76.5</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B155" s="3">
         <f t="shared" si="5"/>
-        <v>0.49986928104575162</v>
+        <v>0.48692810457516339</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="B156" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987012987012985</v>
+        <v>0.48701298701298701</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <f t="shared" si="4"/>
-        <v>77.5</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="B157" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987096774193546</v>
+        <v>0.48709677419354841</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>0.78</v>
       </c>
       <c r="B158" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987179487179489</v>
+        <v>0.48717948717948717</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <f t="shared" si="4"/>
-        <v>78.5</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="B159" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987261146496814</v>
+        <v>0.48726114649681529</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>0.79</v>
       </c>
       <c r="B160" s="3">
         <f t="shared" si="5"/>
-        <v>0.499873417721519</v>
+        <v>0.48734177215189872</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <f t="shared" si="4"/>
-        <v>79.5</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="B161" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987421383647801</v>
+        <v>0.48742138364779874</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B162" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987500000000001</v>
+        <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <f t="shared" si="4"/>
-        <v>80.5</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="B163" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987577639751551</v>
+        <v>0.48757763975155277</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>0.81</v>
       </c>
       <c r="B164" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987654320987657</v>
+        <v>0.48765432098765432</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <f t="shared" si="4"/>
-        <v>81.5</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="B165" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987730061349694</v>
+        <v>0.48773006134969327</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="B166" s="3">
         <f t="shared" si="5"/>
-        <v>0.4998780487804878</v>
+        <v>0.48780487804878048</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <f t="shared" si="4"/>
-        <v>82.5</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="B167" s="3">
         <f t="shared" si="5"/>
-        <v>0.49987878787878787</v>
+        <v>0.48787878787878786</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <f t="shared" ref="A168:A202" si="6">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="B168" s="3">
         <f t="shared" ref="B168:B202" si="7">MAX(MIN($E$4 * (A168 - $E$6)^$E$5 + $E$7, 1), 0)</f>
-        <v>0.49987951807228914</v>
+        <v>0.48795180722891568</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <f t="shared" si="6"/>
-        <v>83.5</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="B169" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988023952095806</v>
+        <v>0.4880239520958084</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>0.84</v>
       </c>
       <c r="B170" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988095238095237</v>
+        <v>0.48809523809523808</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <f t="shared" si="6"/>
-        <v>84.5</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="B171" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988165680473373</v>
+        <v>0.48816568047337278</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <f t="shared" si="6"/>
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="B172" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988235294117644</v>
+        <v>0.48823529411764705</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <f t="shared" si="6"/>
-        <v>85.5</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B173" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988304093567254</v>
+        <v>0.48830409356725146</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="B174" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988372093023253</v>
+        <v>0.48837209302325579</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <f t="shared" si="6"/>
-        <v>86.5</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="B175" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988439306358379</v>
+        <v>0.48843930635838151</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>0.87</v>
       </c>
       <c r="B176" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988505747126438</v>
+        <v>0.4885057471264368</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <f t="shared" si="6"/>
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="B177" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988571428571427</v>
+        <v>0.48857142857142855</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <f t="shared" si="6"/>
-        <v>88</v>
+        <v>0.88</v>
       </c>
       <c r="B178" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988636363636363</v>
+        <v>0.48863636363636365</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <f t="shared" si="6"/>
-        <v>88.5</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="B179" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998870056497175</v>
+        <v>0.48870056497175141</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <f t="shared" si="6"/>
-        <v>89</v>
+        <v>0.89</v>
       </c>
       <c r="B180" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988764044943818</v>
+        <v>0.4887640449438202</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <f t="shared" si="6"/>
-        <v>89.5</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="B181" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988826815642456</v>
+        <v>0.48882681564245811</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <f t="shared" si="6"/>
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="B182" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988888888888888</v>
+        <v>0.48888888888888887</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <f t="shared" si="6"/>
-        <v>90.5</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="B183" s="3">
         <f t="shared" si="7"/>
-        <v>0.49988950276243094</v>
+        <v>0.4889502762430939</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <f t="shared" si="6"/>
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="B184" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998901098901099</v>
+        <v>0.48901098901098899</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <f t="shared" si="6"/>
-        <v>91.5</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="B185" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989071038251365</v>
+        <v>0.48907103825136611</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>0.92</v>
       </c>
       <c r="B186" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989130434782608</v>
+        <v>0.4891304347826087</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <f t="shared" si="6"/>
-        <v>92.5</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="B187" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989189189189187</v>
+        <v>0.48918918918918919</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="B188" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989247311827956</v>
+        <v>0.489247311827957</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <f t="shared" si="6"/>
-        <v>93.5</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="B189" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989304812834223</v>
+        <v>0.48930481283422461</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <f t="shared" si="6"/>
-        <v>94</v>
+        <v>0.94</v>
       </c>
       <c r="B190" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998936170212766</v>
+        <v>0.48936170212765956</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <f t="shared" si="6"/>
-        <v>94.5</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="B191" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989417989417989</v>
+        <v>0.48941798941798942</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="B192" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989473684210528</v>
+        <v>0.48947368421052634</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <f t="shared" si="6"/>
-        <v>95.5</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="B193" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989528795811516</v>
+        <v>0.48952879581151831</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="B194" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989583333333332</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <f t="shared" si="6"/>
-        <v>96.5</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="B195" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998963730569948</v>
+        <v>0.48963730569948188</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <f t="shared" si="6"/>
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="B196" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989690721649482</v>
+        <v>0.48969072164948452</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <f t="shared" si="6"/>
-        <v>97.5</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="B197" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998974358974359</v>
+        <v>0.48974358974358972</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <f t="shared" si="6"/>
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="B198" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989795918367347</v>
+        <v>0.48979591836734693</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <f t="shared" si="6"/>
-        <v>98.5</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="B199" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989847715736041</v>
+        <v>0.48984771573604063</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>0.99</v>
       </c>
       <c r="B200" s="3">
         <f t="shared" si="7"/>
-        <v>0.4998989898989899</v>
+        <v>0.48989898989898989</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <f t="shared" si="6"/>
-        <v>99.5</v>
+        <v>0.995</v>
       </c>
       <c r="B201" s="3">
         <f t="shared" si="7"/>
-        <v>0.49989949748743717</v>
+        <v>0.4899497487437186</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B202" s="3">
         <f t="shared" si="7"/>
-        <v>0.49990000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -12671,8 +12671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O202"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14403,7 +14403,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <f t="shared" ref="A168:A231" si="6">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A168:A202" si="6">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
         <v>0.83</v>
       </c>
       <c r="B168" s="3">
@@ -16495,7 +16495,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <f t="shared" ref="A168:A231" si="6">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
+        <f t="shared" ref="A168:A202" si="6">$E$1 + ((ROW() - 2) / 2) / 100 * ($E$2-$E$1)</f>
         <v>0.83</v>
       </c>
       <c r="B168" s="3">

--- a/Documents/Utility Charts.xlsx
+++ b/Documents/Utility Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="8190" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Lists" sheetId="8" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="Exponential" sheetId="4" r:id="rId3"/>
     <sheet name="Sigmoid" sheetId="5" r:id="rId4"/>
     <sheet name="Considerations" sheetId="7" r:id="rId5"/>
+    <sheet name="Choices" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="lstConsiderations">Considerations!$A$6:$A$9</definedName>
     <definedName name="lstEquation">Lists!$A$2:$A$5</definedName>
+    <definedName name="lstFactType">Lists!$D$3:$D$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Slope</t>
   </si>
@@ -87,9 +90,6 @@
     <t>Distance From Target</t>
   </si>
   <si>
-    <t>Angle Away From Target</t>
-  </si>
-  <si>
     <t>Linear</t>
   </si>
   <si>
@@ -105,16 +105,55 @@
     <t>Enum Val</t>
   </si>
   <si>
-    <t>Exp</t>
+    <t>Graph</t>
   </si>
   <si>
-    <t>Sig</t>
+    <t>Exp Top Left</t>
   </si>
   <si>
-    <t>Const</t>
+    <t>Exp Top Right</t>
   </si>
   <si>
-    <t>Graph</t>
+    <t>Exp Bottom Left</t>
+  </si>
+  <si>
+    <t>Exp Bottom Right</t>
+  </si>
+  <si>
+    <t>Far From Target</t>
+  </si>
+  <si>
+    <t>Angled Away From Target</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Fly Towards Enemy</t>
+  </si>
+  <si>
+    <t>Considerations</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Fly Away From Enemey</t>
+  </si>
+  <si>
+    <t>Angled Toward Target</t>
+  </si>
+  <si>
+    <t>Close To Target</t>
+  </si>
+  <si>
+    <t>Fact Type</t>
+  </si>
+  <si>
+    <t>Angle From Target</t>
   </si>
 </sst>
 </file>
@@ -267,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +340,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,6 +1121,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1186,6 +1241,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2650,6 +2706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2769,6 +2826,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4233,6 +4291,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4352,6 +4411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6450,51 +6510,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -12762,10 +12848,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ6"/>
+  <dimension ref="A1:DH9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12773,13 +12859,14 @@
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="6" width="11" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="13" width="5.5703125" customWidth="1"/>
-    <col min="14" max="114" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="112" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>15</v>
       </c>
@@ -12799,2495 +12886,3854 @@
         <v>3</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
+      <c r="J1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="20">
+        <v>0</v>
+      </c>
+      <c r="M1" s="20">
+        <v>0.01</v>
       </c>
       <c r="N1" s="20">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O1" s="20">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P1" s="20">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q1" s="20">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="R1" s="20">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="S1" s="20">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T1" s="20">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="U1" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="V1" s="20">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="W1" s="20">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="X1" s="20">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Y1" s="20">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="Z1" s="20">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA1" s="20">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AB1" s="20">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="AC1" s="20">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AD1" s="20">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AE1" s="20">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AF1" s="20">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AG1" s="20">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AH1" s="20">
+        <v>0.22</v>
+      </c>
+      <c r="AI1" s="20">
+        <v>0.23</v>
+      </c>
+      <c r="AJ1" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="AK1" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="AL1" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="AM1" s="20">
+        <v>0.27</v>
+      </c>
+      <c r="AN1" s="20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AO1" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AP1" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="AQ1" s="20">
+        <v>0.31</v>
+      </c>
+      <c r="AR1" s="20">
+        <v>0.32</v>
+      </c>
+      <c r="AS1" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="AT1" s="20">
+        <v>0.34</v>
+      </c>
+      <c r="AU1" s="20">
+        <v>0.35</v>
+      </c>
+      <c r="AV1" s="20">
+        <v>0.36</v>
+      </c>
+      <c r="AW1" s="20">
+        <v>0.37</v>
+      </c>
+      <c r="AX1" s="20">
+        <v>0.38</v>
+      </c>
+      <c r="AY1" s="20">
+        <v>0.39</v>
+      </c>
+      <c r="AZ1" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="BA1" s="20">
+        <v>0.41</v>
+      </c>
+      <c r="BB1" s="20">
+        <v>0.42</v>
+      </c>
+      <c r="BC1" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="BD1" s="20">
+        <v>0.44</v>
+      </c>
+      <c r="BE1" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="BF1" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="BG1" s="20">
+        <v>0.47</v>
+      </c>
+      <c r="BH1" s="20">
+        <v>0.48</v>
+      </c>
+      <c r="BI1" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="BJ1" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="BK1" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="BL1" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="BM1" s="20">
+        <v>0.53</v>
+      </c>
+      <c r="BN1" s="20">
+        <v>0.54</v>
+      </c>
+      <c r="BO1" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BP1" s="20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="BQ1" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BR1" s="20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="BS1" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="BT1" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="BU1" s="20">
+        <v>0.61</v>
+      </c>
+      <c r="BV1" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="BW1" s="20">
+        <v>0.63</v>
+      </c>
+      <c r="BX1" s="20">
+        <v>0.64</v>
+      </c>
+      <c r="BY1" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="BZ1" s="20">
+        <v>0.66</v>
+      </c>
+      <c r="CA1" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="CB1" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="CC1" s="20">
+        <v>0.69</v>
+      </c>
+      <c r="CD1" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="CE1" s="20">
+        <v>0.71</v>
+      </c>
+      <c r="CF1" s="20">
+        <v>0.72</v>
+      </c>
+      <c r="CG1" s="20">
+        <v>0.73</v>
+      </c>
+      <c r="CH1" s="20">
+        <v>0.74</v>
+      </c>
+      <c r="CI1" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="CJ1" s="20">
+        <v>0.76</v>
+      </c>
+      <c r="CK1" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="CL1" s="20">
+        <v>0.78</v>
+      </c>
+      <c r="CM1" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="CN1" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="CO1" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="CP1" s="20">
+        <v>0.82</v>
+      </c>
+      <c r="CQ1" s="20">
+        <v>0.83</v>
+      </c>
+      <c r="CR1" s="20">
+        <v>0.84</v>
+      </c>
+      <c r="CS1" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="CT1" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="CU1" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="CV1" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="CW1" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="CX1" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="CY1" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="CZ1" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="DA1" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="DB1" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="DC1" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="DD1" s="20">
+        <v>0.96</v>
+      </c>
+      <c r="DE1" s="20">
+        <v>0.97</v>
+      </c>
+      <c r="DF1" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="DG1" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="DH1" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="22">
+        <v>4</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22">
         <v>0.2</v>
       </c>
-      <c r="AI1" s="20">
-        <v>0.21</v>
-      </c>
-      <c r="AJ1" s="20">
-        <v>0.22</v>
-      </c>
-      <c r="AK1" s="20">
-        <v>0.23</v>
-      </c>
-      <c r="AL1" s="20">
-        <v>0.24</v>
-      </c>
-      <c r="AM1" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="AN1" s="20">
-        <v>0.26</v>
-      </c>
-      <c r="AO1" s="20">
-        <v>0.27</v>
-      </c>
-      <c r="AP1" s="20">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AQ1" s="20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AR1" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="AS1" s="20">
-        <v>0.31</v>
-      </c>
-      <c r="AT1" s="20">
-        <v>0.32</v>
-      </c>
-      <c r="AU1" s="20">
-        <v>0.33</v>
-      </c>
-      <c r="AV1" s="20">
-        <v>0.34</v>
-      </c>
-      <c r="AW1" s="20">
-        <v>0.35</v>
-      </c>
-      <c r="AX1" s="20">
-        <v>0.36</v>
-      </c>
-      <c r="AY1" s="20">
-        <v>0.37</v>
-      </c>
-      <c r="AZ1" s="20">
-        <v>0.38</v>
-      </c>
-      <c r="BA1" s="20">
-        <v>0.39</v>
-      </c>
-      <c r="BB1" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="BC1" s="20">
-        <v>0.41</v>
-      </c>
-      <c r="BD1" s="20">
-        <v>0.42</v>
-      </c>
-      <c r="BE1" s="20">
-        <v>0.43</v>
-      </c>
-      <c r="BF1" s="20">
-        <v>0.44</v>
-      </c>
-      <c r="BG1" s="20">
-        <v>0.45</v>
-      </c>
-      <c r="BH1" s="20">
-        <v>0.46</v>
-      </c>
-      <c r="BI1" s="20">
-        <v>0.47</v>
-      </c>
-      <c r="BJ1" s="20">
-        <v>0.48</v>
-      </c>
-      <c r="BK1" s="20">
-        <v>0.49</v>
-      </c>
-      <c r="BL1" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="BM1" s="20">
-        <v>0.51</v>
-      </c>
-      <c r="BN1" s="20">
-        <v>0.52</v>
-      </c>
-      <c r="BO1" s="20">
-        <v>0.53</v>
-      </c>
-      <c r="BP1" s="20">
-        <v>0.54</v>
-      </c>
-      <c r="BQ1" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="BR1" s="20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="BS1" s="20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="BT1" s="20">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="BU1" s="20">
-        <v>0.59</v>
-      </c>
-      <c r="BV1" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="BW1" s="20">
-        <v>0.61</v>
-      </c>
-      <c r="BX1" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="BY1" s="20">
-        <v>0.63</v>
-      </c>
-      <c r="BZ1" s="20">
-        <v>0.64</v>
-      </c>
-      <c r="CA1" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="CB1" s="20">
-        <v>0.66</v>
-      </c>
-      <c r="CC1" s="20">
-        <v>0.67</v>
-      </c>
-      <c r="CD1" s="20">
-        <v>0.68</v>
-      </c>
-      <c r="CE1" s="20">
-        <v>0.69</v>
-      </c>
-      <c r="CF1" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="CG1" s="20">
-        <v>0.71</v>
-      </c>
-      <c r="CH1" s="20">
-        <v>0.72</v>
-      </c>
-      <c r="CI1" s="20">
-        <v>0.73</v>
-      </c>
-      <c r="CJ1" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="CK1" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="CL1" s="20">
-        <v>0.76</v>
-      </c>
-      <c r="CM1" s="20">
-        <v>0.77</v>
-      </c>
-      <c r="CN1" s="20">
-        <v>0.78</v>
-      </c>
-      <c r="CO1" s="20">
-        <v>0.79</v>
-      </c>
-      <c r="CP1" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="CQ1" s="20">
-        <v>0.81</v>
-      </c>
-      <c r="CR1" s="20">
-        <v>0.82</v>
-      </c>
-      <c r="CS1" s="20">
-        <v>0.83</v>
-      </c>
-      <c r="CT1" s="20">
-        <v>0.84</v>
-      </c>
-      <c r="CU1" s="20">
-        <v>0.85</v>
-      </c>
-      <c r="CV1" s="20">
-        <v>0.86</v>
-      </c>
-      <c r="CW1" s="20">
-        <v>0.87</v>
-      </c>
-      <c r="CX1" s="20">
-        <v>0.88</v>
-      </c>
-      <c r="CY1" s="20">
-        <v>0.89</v>
-      </c>
-      <c r="CZ1" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="DA1" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="DB1" s="20">
-        <v>0.92</v>
-      </c>
-      <c r="DC1" s="20">
-        <v>0.93</v>
-      </c>
-      <c r="DD1" s="20">
-        <v>0.94</v>
-      </c>
-      <c r="DE1" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="DF1" s="20">
-        <v>0.96</v>
-      </c>
-      <c r="DG1" s="20">
-        <v>0.97</v>
-      </c>
-      <c r="DH1" s="20">
-        <v>0.98</v>
-      </c>
-      <c r="DI1" s="20">
-        <v>0.99</v>
-      </c>
-      <c r="DJ1" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:114" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18">
-        <v>6</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18">
-        <v>40</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="N2" s="20">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="19"/>
+      <c r="L2" s="20">
         <f>MAX(MIN(
 IF($B2="Constant", $F2,
-IF($B2="Linear",$C2*N$1+$F2,
-IF($B2="Exponential", $C2 * POWER(N$1 - $E2, $D2) + $F2,
-IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * N$1)) + $F2, $F2),
+IF($B2="Linear",$C2*L$1+$F2,
+IF($B2="Exponential", $C2 * POWER(L$1 - $E2, $D2) + $F2,
+IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * L$1)) + $F2, $F2),
 0)))),
 1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <f t="shared" ref="O2:BN3" si="0">MAX(MIN(
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="20">
+        <f t="shared" ref="M2:BL9" si="0">MAX(MIN(
 IF($B2="Constant", $F2,
-IF($B2="Linear",$C2*O$1+$F2,
-IF($B2="Exponential", $C2 * POWER(O$1 - $E2, $D2) + $F2,
-IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * O$1)) + $F2, $F2),
+IF($B2="Linear",$C2*M$1+$F2,
+IF($B2="Exponential", $C2 * POWER(M$1 - $E2, $D2) + $F2,
+IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * M$1)) + $F2, $F2),
 0)))),
 1),0)</f>
-        <v>9.9999999999999998E-13</v>
+        <v>0.77635760599999992</v>
+      </c>
+      <c r="N2" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75342089599999995</v>
+      </c>
+      <c r="O2" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73117568600000005</v>
       </c>
       <c r="P2" s="20">
         <f t="shared" si="0"/>
-        <v>6.3999999999999999E-11</v>
+        <v>0.70960793600000005</v>
       </c>
       <c r="Q2" s="20">
         <f t="shared" si="0"/>
-        <v>7.2899999999999996E-10</v>
+        <v>0.68870374999999995</v>
       </c>
       <c r="R2" s="20">
         <f t="shared" si="0"/>
-        <v>4.0959999999999999E-9</v>
+        <v>0.66844937599999987</v>
       </c>
       <c r="S2" s="20">
         <f t="shared" si="0"/>
-        <v>1.5625000000000009E-8</v>
+        <v>0.64883120599999988</v>
       </c>
       <c r="T2" s="20">
         <f t="shared" si="0"/>
-        <v>4.6655999999999998E-8</v>
+        <v>0.62983577600000007</v>
       </c>
       <c r="U2" s="20">
         <f t="shared" si="0"/>
-        <v>1.1764900000000005E-7</v>
+        <v>0.61144976600000001</v>
       </c>
       <c r="V2" s="20">
         <f t="shared" si="0"/>
-        <v>2.6214399999999999E-7</v>
+        <v>0.59366000000000008</v>
       </c>
       <c r="W2" s="20">
         <f t="shared" si="0"/>
-        <v>5.3144099999999987E-7</v>
+        <v>0.57645344600000004</v>
       </c>
       <c r="X2" s="20">
         <f t="shared" si="0"/>
-        <v>1.0000000000000006E-6</v>
+        <v>0.55981721600000001</v>
       </c>
       <c r="Y2" s="20">
         <f t="shared" si="0"/>
-        <v>1.7715609999999999E-6</v>
+        <v>0.54373856600000003</v>
       </c>
       <c r="Z2" s="20">
         <f t="shared" si="0"/>
-        <v>2.9859839999999999E-6</v>
+        <v>0.52820489599999987</v>
       </c>
       <c r="AA2" s="20">
         <f t="shared" si="0"/>
-        <v>4.8268090000000014E-6</v>
+        <v>0.51320374999999996</v>
       </c>
       <c r="AB2" s="20">
         <f t="shared" si="0"/>
-        <v>7.5295360000000032E-6</v>
+        <v>0.4987228159999999</v>
       </c>
       <c r="AC2" s="20">
         <f t="shared" si="0"/>
-        <v>1.1390624999999999E-5</v>
+        <v>0.48474992599999994</v>
       </c>
       <c r="AD2" s="20">
         <f t="shared" si="0"/>
-        <v>1.6777216E-5</v>
+        <v>0.47127305600000008</v>
       </c>
       <c r="AE2" s="20">
         <f t="shared" si="0"/>
-        <v>2.4137569000000013E-5</v>
+        <v>0.45828032600000007</v>
       </c>
       <c r="AF2" s="20">
         <f t="shared" si="0"/>
-        <v>3.4012223999999992E-5</v>
+        <v>0.4457600000000001</v>
       </c>
       <c r="AG2" s="20">
         <f t="shared" si="0"/>
-        <v>4.7045880999999998E-5</v>
+        <v>0.43370048600000011</v>
       </c>
       <c r="AH2" s="20">
         <f t="shared" si="0"/>
-        <v>6.4000000000000038E-5</v>
+        <v>0.42209033600000001</v>
       </c>
       <c r="AI2" s="20">
         <f t="shared" si="0"/>
-        <v>8.5766120999999969E-5</v>
+        <v>0.41091824599999999</v>
       </c>
       <c r="AJ2" s="20">
         <f t="shared" si="0"/>
-        <v>1.1337990399999999E-4</v>
+        <v>0.40017305599999997</v>
       </c>
       <c r="AK2" s="20">
         <f t="shared" si="0"/>
-        <v>1.4803588900000003E-4</v>
+        <v>0.38984375000000004</v>
       </c>
       <c r="AL2" s="20">
         <f t="shared" si="0"/>
-        <v>1.9110297599999999E-4</v>
+        <v>0.37991945599999999</v>
       </c>
       <c r="AM2" s="20">
         <f t="shared" si="0"/>
-        <v>2.44140625E-4</v>
+        <v>0.37038944599999996</v>
       </c>
       <c r="AN2" s="20">
         <f t="shared" si="0"/>
-        <v>3.0891577600000009E-4</v>
+        <v>0.36124313600000002</v>
       </c>
       <c r="AO2" s="20">
         <f t="shared" si="0"/>
-        <v>3.8742048900000013E-4</v>
+        <v>0.35247008599999996</v>
       </c>
       <c r="AP2" s="20">
         <f t="shared" si="0"/>
-        <v>4.818903040000002E-4</v>
+        <v>0.34405999999999992</v>
       </c>
       <c r="AQ2" s="20">
         <f t="shared" si="0"/>
-        <v>5.9482332099999988E-4</v>
+        <v>0.33600272599999997</v>
       </c>
       <c r="AR2" s="20">
         <f t="shared" si="0"/>
-        <v>7.2899999999999994E-4</v>
+        <v>0.328288256</v>
       </c>
       <c r="AS2" s="20">
         <f t="shared" si="0"/>
-        <v>8.8750368100000009E-4</v>
+        <v>0.32090672599999992</v>
       </c>
       <c r="AT2" s="20">
         <f t="shared" si="0"/>
-        <v>1.073741824E-3</v>
+        <v>0.31384841599999991</v>
       </c>
       <c r="AU2" s="20">
         <f t="shared" si="0"/>
-        <v>1.2914679690000004E-3</v>
+        <v>0.30710375000000001</v>
       </c>
       <c r="AV2" s="20">
         <f t="shared" si="0"/>
-        <v>1.5448044160000008E-3</v>
+        <v>0.30066329600000002</v>
       </c>
       <c r="AW2" s="20">
         <f t="shared" si="0"/>
-        <v>1.8382656249999992E-3</v>
+        <v>0.29451776600000001</v>
       </c>
       <c r="AX2" s="20">
         <f t="shared" si="0"/>
-        <v>2.1767823359999995E-3</v>
+        <v>0.28865801600000002</v>
       </c>
       <c r="AY2" s="20">
         <f t="shared" si="0"/>
-        <v>2.5657264089999996E-3</v>
+        <v>0.283075046</v>
       </c>
       <c r="AZ2" s="20">
         <f t="shared" si="0"/>
-        <v>3.0109363839999998E-3</v>
+        <v>0.27776000000000001</v>
       </c>
       <c r="BA2" s="20">
         <f t="shared" si="0"/>
-        <v>3.5187437610000008E-3</v>
+        <v>0.27270416600000003</v>
       </c>
       <c r="BB2" s="20">
         <f t="shared" si="0"/>
-        <v>4.0960000000000024E-3</v>
+        <v>0.26789897600000007</v>
       </c>
       <c r="BC2" s="20">
         <f t="shared" si="0"/>
-        <v>4.7501042409999975E-3</v>
+        <v>0.26333600600000007</v>
       </c>
       <c r="BD2" s="20">
         <f t="shared" si="0"/>
-        <v>5.489031743999998E-3</v>
+        <v>0.259006976</v>
       </c>
       <c r="BE2" s="20">
         <f t="shared" si="0"/>
-        <v>6.3213630489999976E-3</v>
+        <v>0.25490375000000004</v>
       </c>
       <c r="BF2" s="20">
         <f t="shared" si="0"/>
-        <v>7.2563138559999995E-3</v>
+        <v>0.25101833600000001</v>
       </c>
       <c r="BG2" s="20">
         <f t="shared" si="0"/>
-        <v>8.3037656250000026E-3</v>
+        <v>0.24734288600000001</v>
       </c>
       <c r="BH2" s="20">
         <f t="shared" si="0"/>
-        <v>9.4742968960000017E-3</v>
+        <v>0.24386969600000002</v>
       </c>
       <c r="BI2" s="20">
         <f t="shared" si="0"/>
-        <v>1.0779215328999999E-2</v>
+        <v>0.240591206</v>
       </c>
       <c r="BJ2" s="20">
         <f t="shared" si="0"/>
-        <v>1.2230590463999999E-2</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="BK2" s="20">
-        <f t="shared" si="0"/>
-        <v>1.3841287200999997E-2</v>
+        <f>MAX(MIN(
+IF($B2="Constant", $F2,
+IF($B2="Linear",$C2*BK$1+$F2,
+IF($B2="Exponential", $C2 * POWER(BK$1 - $E2, $D2) + $F2,
+IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * BK$1)) + $F2, $F2),
+0)))),
+1),0)</f>
+        <v>0.23458880600000001</v>
       </c>
       <c r="BL2" s="20">
         <f t="shared" si="0"/>
-        <v>1.5625E-2</v>
+        <v>0.23185049600000002</v>
       </c>
       <c r="BM2" s="20">
-        <f>MAX(MIN(
+        <f t="shared" ref="BM2:DH9" si="1">MAX(MIN(
 IF($B2="Constant", $F2,
 IF($B2="Linear",$C2*BM$1+$F2,
 IF($B2="Exponential", $C2 * POWER(BM$1 - $E2, $D2) + $F2,
 IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * BM$1)) + $F2, $F2),
 0)))),
 1),0)</f>
-        <v>1.7596287801000001E-2</v>
+        <v>0.22927808599999999</v>
       </c>
       <c r="BN2" s="20">
-        <f t="shared" si="0"/>
-        <v>1.9770609664000006E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.22686473600000001</v>
       </c>
       <c r="BO2" s="20">
-        <f t="shared" ref="BO2:DJ6" si="1">MAX(MIN(
-IF($B2="Constant", $F2,
-IF($B2="Linear",$C2*BO$1+$F2,
-IF($B2="Exponential", $C2 * POWER(BO$1 - $E2, $D2) + $F2,
-IF($B2="Sigmoid", IFERROR($D2 / (1 + POWER(2.718, $E2 - $C2 * BO$1)) + $F2, $F2),
+        <f t="shared" si="1"/>
+        <v>0.22460374999999999</v>
+      </c>
+      <c r="BP2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22248857599999999</v>
+      </c>
+      <c r="BQ2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22051280600000001</v>
+      </c>
+      <c r="BR2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21867017600000002</v>
+      </c>
+      <c r="BS2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21695456600000002</v>
+      </c>
+      <c r="BT2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21536000000000002</v>
+      </c>
+      <c r="BU2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21388064600000001</v>
+      </c>
+      <c r="BV2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21251081600000002</v>
+      </c>
+      <c r="BW2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21124496600000001</v>
+      </c>
+      <c r="BX2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.21007769600000001</v>
+      </c>
+      <c r="BY2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20900375000000002</v>
+      </c>
+      <c r="BZ2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.208018016</v>
+      </c>
+      <c r="CA2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20711552599999999</v>
+      </c>
+      <c r="CB2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20629145600000001</v>
+      </c>
+      <c r="CC2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20554112600000002</v>
+      </c>
+      <c r="CD2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20486000000000001</v>
+      </c>
+      <c r="CE2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20424368600000001</v>
+      </c>
+      <c r="CF2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20368793600000001</v>
+      </c>
+      <c r="CG2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.203188646</v>
+      </c>
+      <c r="CH2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.202741856</v>
+      </c>
+      <c r="CI2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20234375000000002</v>
+      </c>
+      <c r="CJ2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20199065600000002</v>
+      </c>
+      <c r="CK2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.201679046</v>
+      </c>
+      <c r="CL2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20140553600000002</v>
+      </c>
+      <c r="CM2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20116688600000002</v>
+      </c>
+      <c r="CN2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20096</v>
+      </c>
+      <c r="CO2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.200781926</v>
+      </c>
+      <c r="CP2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20062985600000002</v>
+      </c>
+      <c r="CQ2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.200501126</v>
+      </c>
+      <c r="CR2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20039321600000001</v>
+      </c>
+      <c r="CS2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20030375</v>
+      </c>
+      <c r="CT2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20023049600000001</v>
+      </c>
+      <c r="CU2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20017136600000002</v>
+      </c>
+      <c r="CV2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.200124416</v>
+      </c>
+      <c r="CW2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20008784600000001</v>
+      </c>
+      <c r="CX2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20006000000000002</v>
+      </c>
+      <c r="CY2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20003936600000002</v>
+      </c>
+      <c r="CZ2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20002457600000001</v>
+      </c>
+      <c r="DA2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20001440600000001</v>
+      </c>
+      <c r="DB2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.200007776</v>
+      </c>
+      <c r="DC2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000375000000001</v>
+      </c>
+      <c r="DD2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000153600000001</v>
+      </c>
+      <c r="DE2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000048600000001</v>
+      </c>
+      <c r="DF2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000009600000002</v>
+      </c>
+      <c r="DG2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000600000001</v>
+      </c>
+      <c r="DH2" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="22">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:L6" si="2">MAX(MIN(
+IF($B3="Constant", $F3,
+IF($B3="Linear",$C3*L$1+$F3,
+IF($B3="Exponential", $C3 * POWER(L$1 - $E3, $D3) + $F3,
+IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * L$1)) + $F3, $F3),
 0)))),
 1),0)</f>
-        <v>2.2164361129000009E-2</v>
-      </c>
-      <c r="BP2" s="20">
-        <f t="shared" si="1"/>
-        <v>2.4794911296000009E-2</v>
-      </c>
-      <c r="BQ2" s="20">
-        <f t="shared" si="1"/>
-        <v>2.7680640625000013E-2</v>
-      </c>
-      <c r="BR2" s="20">
-        <f t="shared" si="1"/>
-        <v>3.0840979456000013E-2</v>
-      </c>
-      <c r="BS2" s="20">
-        <f t="shared" si="1"/>
-        <v>3.4296447248999988E-2</v>
-      </c>
-      <c r="BT2" s="20">
-        <f t="shared" si="1"/>
-        <v>3.8068692543999992E-2</v>
-      </c>
-      <c r="BU2" s="20">
-        <f t="shared" si="1"/>
-        <v>4.2180533640999988E-2</v>
-      </c>
-      <c r="BV2" s="20">
-        <f t="shared" si="1"/>
-        <v>4.6655999999999996E-2</v>
-      </c>
-      <c r="BW2" s="20">
-        <f t="shared" si="1"/>
-        <v>5.1520374360999988E-2</v>
-      </c>
-      <c r="BX2" s="20">
-        <f t="shared" si="1"/>
-        <v>5.6800235584000006E-2</v>
-      </c>
-      <c r="BY2" s="20">
-        <f t="shared" si="1"/>
-        <v>6.2523502209000006E-2</v>
-      </c>
-      <c r="BZ2" s="20">
-        <f t="shared" si="1"/>
-        <v>6.8719476735999999E-2</v>
-      </c>
-      <c r="CA2" s="20">
-        <f t="shared" si="1"/>
-        <v>7.5418890625000026E-2</v>
-      </c>
-      <c r="CB2" s="20">
-        <f t="shared" si="1"/>
-        <v>8.2653950016000025E-2</v>
-      </c>
-      <c r="CC2" s="20">
-        <f t="shared" si="1"/>
-        <v>9.0458382169000054E-2</v>
-      </c>
-      <c r="CD2" s="20">
-        <f t="shared" si="1"/>
-        <v>9.8867482624000053E-2</v>
-      </c>
-      <c r="CE2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.10791816308099994</v>
-      </c>
-      <c r="CF2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.11764899999999995</v>
-      </c>
-      <c r="CG2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.12810028392099998</v>
-      </c>
-      <c r="CH2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.13931406950399997</v>
-      </c>
-      <c r="CI2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.15133422628899992</v>
-      </c>
-      <c r="CJ2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.16420649017599998</v>
-      </c>
-      <c r="CK2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.177978515625</v>
-      </c>
-      <c r="CL2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.19269992857599999</v>
-      </c>
-      <c r="CM2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.20842238008899996</v>
-      </c>
-      <c r="CN2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.22519960070400005</v>
-      </c>
-      <c r="CO2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.24308745552100014</v>
-      </c>
-      <c r="CP2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.26214400000000015</v>
-      </c>
-      <c r="CQ2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.28242953648100017</v>
-      </c>
-      <c r="CR2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.30400667142399984</v>
-      </c>
-      <c r="CS2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.32694037336899995</v>
-      </c>
-      <c r="CT2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.35129803161599987</v>
-      </c>
-      <c r="CU2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.37714951562499988</v>
-      </c>
-      <c r="CV2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40456723513599985</v>
-      </c>
-      <c r="CW2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.43362620100900007</v>
-      </c>
-      <c r="CX2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46440408678399997</v>
-      </c>
-      <c r="CY2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.49698129096100008</v>
-      </c>
-      <c r="CZ2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.53144100000000016</v>
-      </c>
-      <c r="DA2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56786925204100014</v>
-      </c>
-      <c r="DB2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.60635500134400011</v>
-      </c>
-      <c r="DC2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.64699018344900028</v>
-      </c>
-      <c r="DD2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.68986978105599994</v>
-      </c>
-      <c r="DE2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.73509189062499991</v>
-      </c>
-      <c r="DF2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.78275778969599996</v>
-      </c>
-      <c r="DG2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.83297200492899992</v>
-      </c>
-      <c r="DH2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.8858423808639998</v>
-      </c>
-      <c r="DI2" s="20">
-        <f t="shared" si="1"/>
-        <v>0.94148014940099989</v>
-      </c>
-      <c r="DJ2" s="20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:114" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="D3" s="18">
         <v>0.2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>180</v>
-      </c>
-      <c r="I3" s="19"/>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20000000600000001</v>
+      </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:AC6" si="2">MAX(MIN(
+        <f t="shared" si="0"/>
+        <v>0.20000009600000002</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20000048600000001</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20000153600000001</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20000375000000001</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.200007776</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20001440600000001</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20002457600000001</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20003936600000002</v>
+      </c>
+      <c r="V3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20006000000000002</v>
+      </c>
+      <c r="W3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20008784600000001</v>
+      </c>
+      <c r="X3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.200124416</v>
+      </c>
+      <c r="Y3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20017136600000002</v>
+      </c>
+      <c r="Z3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20023049600000001</v>
+      </c>
+      <c r="AA3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20030375</v>
+      </c>
+      <c r="AB3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20039321600000001</v>
+      </c>
+      <c r="AC3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.200501126</v>
+      </c>
+      <c r="AD3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20062985600000002</v>
+      </c>
+      <c r="AE3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.200781926</v>
+      </c>
+      <c r="AF3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20096</v>
+      </c>
+      <c r="AG3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20116688600000002</v>
+      </c>
+      <c r="AH3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20140553600000002</v>
+      </c>
+      <c r="AI3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.201679046</v>
+      </c>
+      <c r="AJ3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20199065600000002</v>
+      </c>
+      <c r="AK3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20234375000000002</v>
+      </c>
+      <c r="AL3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.202741856</v>
+      </c>
+      <c r="AM3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.203188646</v>
+      </c>
+      <c r="AN3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20368793600000001</v>
+      </c>
+      <c r="AO3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20424368600000001</v>
+      </c>
+      <c r="AP3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20486000000000001</v>
+      </c>
+      <c r="AQ3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20554112600000002</v>
+      </c>
+      <c r="AR3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20629145600000001</v>
+      </c>
+      <c r="AS3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20711552600000002</v>
+      </c>
+      <c r="AT3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20801801600000003</v>
+      </c>
+      <c r="AU3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.20900375000000002</v>
+      </c>
+      <c r="AV3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21007769600000001</v>
+      </c>
+      <c r="AW3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21124496600000001</v>
+      </c>
+      <c r="AX3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21251081600000002</v>
+      </c>
+      <c r="AY3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21388064600000001</v>
+      </c>
+      <c r="AZ3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21536000000000002</v>
+      </c>
+      <c r="BA3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21695456600000002</v>
+      </c>
+      <c r="BB3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21867017599999999</v>
+      </c>
+      <c r="BC3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22051280600000001</v>
+      </c>
+      <c r="BD3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22248857600000002</v>
+      </c>
+      <c r="BE3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22460375000000002</v>
+      </c>
+      <c r="BF3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22686473600000001</v>
+      </c>
+      <c r="BG3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22927808599999999</v>
+      </c>
+      <c r="BH3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23185049600000002</v>
+      </c>
+      <c r="BI3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23458880600000001</v>
+      </c>
+      <c r="BJ3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="BK3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.240591206</v>
+      </c>
+      <c r="BL3" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24386969600000002</v>
+      </c>
+      <c r="BM3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24734288600000001</v>
+      </c>
+      <c r="BN3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.25101833600000001</v>
+      </c>
+      <c r="BO3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.25490375000000004</v>
+      </c>
+      <c r="BP3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.259006976</v>
+      </c>
+      <c r="BQ3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.26333600600000001</v>
+      </c>
+      <c r="BR3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.26789897600000001</v>
+      </c>
+      <c r="BS3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.27270416600000003</v>
+      </c>
+      <c r="BT3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.27776000000000001</v>
+      </c>
+      <c r="BU3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.283075046</v>
+      </c>
+      <c r="BV3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.28865801600000002</v>
+      </c>
+      <c r="BW3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.29451776600000001</v>
+      </c>
+      <c r="BX3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30066329600000002</v>
+      </c>
+      <c r="BY3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30710375000000001</v>
+      </c>
+      <c r="BZ3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.31384841600000002</v>
+      </c>
+      <c r="CA3" s="20">
+        <f t="shared" si="1"/>
+        <v>0.32090672600000003</v>
+      </c>
+      <c r="CB3" s="20">
+        <f t="shared" ref="CB3:CQ3" si="3">MAX(MIN(
 IF($B3="Constant", $F3,
-IF($B3="Linear",$C3*N$1+$F3,
-IF($B3="Exponential", $C3 * POWER(N$1 - $E3, $D3) + $F3,
-IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * N$1)) + $F3, $F3),
+IF($B3="Linear",$C3*CB$1+$F3,
+IF($B3="Exponential", $C3 * POWER(CB$1 - $E3, $D3) + $F3,
+IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * CB$1)) + $F3, $F3),
 0)))),
 1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P3" s="20">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q3" s="20">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="R3" s="20">
-        <f t="shared" si="0"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="S3" s="20">
-        <f t="shared" ref="S3:AH6" si="3">MAX(MIN(
+        <v>0.32828825600000006</v>
+      </c>
+      <c r="CC3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.33600272599999997</v>
+      </c>
+      <c r="CD3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.34405999999999992</v>
+      </c>
+      <c r="CE3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.35247008599999996</v>
+      </c>
+      <c r="CF3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.36124313600000002</v>
+      </c>
+      <c r="CG3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.37038944599999996</v>
+      </c>
+      <c r="CH3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.37991945599999999</v>
+      </c>
+      <c r="CI3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.38984375000000004</v>
+      </c>
+      <c r="CJ3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.40017305599999997</v>
+      </c>
+      <c r="CK3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.41091824599999999</v>
+      </c>
+      <c r="CL3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.42209033600000001</v>
+      </c>
+      <c r="CM3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43370048600000011</v>
+      </c>
+      <c r="CN3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.4457600000000001</v>
+      </c>
+      <c r="CO3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.45828032600000007</v>
+      </c>
+      <c r="CP3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.47127305599999991</v>
+      </c>
+      <c r="CQ3" s="20">
+        <f t="shared" si="3"/>
+        <v>0.48474992599999994</v>
+      </c>
+      <c r="CR3" s="20">
+        <f t="shared" ref="CR3:DG3" si="4">MAX(MIN(
 IF($B3="Constant", $F3,
-IF($B3="Linear",$C3*S$1+$F3,
-IF($B3="Exponential", $C3 * POWER(S$1 - $E3, $D3) + $F3,
-IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * S$1)) + $F3, $F3),
+IF($B3="Linear",$C3*CR$1+$F3,
+IF($B3="Exponential", $C3 * POWER(CR$1 - $E3, $D3) + $F3,
+IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * CR$1)) + $F3, $F3),
 0)))),
 1),0)</f>
-        <v>0.03</v>
-      </c>
-      <c r="T3" s="20">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="U3" s="20">
-        <f t="shared" si="3"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="V3" s="20">
-        <f t="shared" si="3"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="W3" s="20">
-        <f t="shared" si="3"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="X3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="Y3" s="20">
-        <f t="shared" si="3"/>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="Z3" s="20">
-        <f t="shared" si="3"/>
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AA3" s="20">
-        <f t="shared" si="3"/>
-        <v>7.8E-2</v>
-      </c>
-      <c r="AB3" s="20">
-        <f t="shared" si="3"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AC3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="AD3" s="20">
-        <f t="shared" si="3"/>
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AE3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.10200000000000001</v>
-      </c>
-      <c r="AF3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.108</v>
-      </c>
-      <c r="AG3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.11399999999999999</v>
-      </c>
-      <c r="AH3" s="20">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-      <c r="AI3" s="20">
-        <f t="shared" ref="AI3:AX6" si="4">MAX(MIN(
+        <v>0.4987228159999999</v>
+      </c>
+      <c r="CS3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.51320374999999996</v>
+      </c>
+      <c r="CT3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.52820489599999987</v>
+      </c>
+      <c r="CU3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.54373856600000003</v>
+      </c>
+      <c r="CV3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.55981721600000001</v>
+      </c>
+      <c r="CW3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.57645344600000004</v>
+      </c>
+      <c r="CX3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.59366000000000008</v>
+      </c>
+      <c r="CY3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.61144976600000001</v>
+      </c>
+      <c r="CZ3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.62983577600000007</v>
+      </c>
+      <c r="DA3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.6488312060000001</v>
+      </c>
+      <c r="DB3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.66844937599999987</v>
+      </c>
+      <c r="DC3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.68870374999999995</v>
+      </c>
+      <c r="DD3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.70960793600000005</v>
+      </c>
+      <c r="DE3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.73117568600000005</v>
+      </c>
+      <c r="DF3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.75342089599999995</v>
+      </c>
+      <c r="DG3" s="20">
+        <f t="shared" si="4"/>
+        <v>0.77635760599999992</v>
+      </c>
+      <c r="DH3" s="20">
+        <f t="shared" ref="BM3:DH6" si="5">MAX(MIN(
 IF($B3="Constant", $F3,
-IF($B3="Linear",$C3*AI$1+$F3,
-IF($B3="Exponential", $C3 * POWER(AI$1 - $E3, $D3) + $F3,
-IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * AI$1)) + $F3, $F3),
+IF($B3="Linear",$C3*DH$1+$F3,
+IF($B3="Exponential", $C3 * POWER(DH$1 - $E3, $D3) + $F3,
+IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * DH$1)) + $F3, $F3),
 0)))),
 1),0)</f>
-        <v>0.126</v>
-      </c>
-      <c r="AJ3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="AK3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="AL3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AM3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="AN3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.156</v>
-      </c>
-      <c r="AO3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="AP3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="AQ3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="AR3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.18</v>
-      </c>
-      <c r="AS3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.186</v>
-      </c>
-      <c r="AT3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.192</v>
-      </c>
-      <c r="AU3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="AV3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="AW3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.21</v>
-      </c>
-      <c r="AX3" s="20">
-        <f t="shared" si="4"/>
-        <v>0.216</v>
-      </c>
-      <c r="AY3" s="20">
-        <f t="shared" ref="AY3:BN6" si="5">MAX(MIN(
-IF($B3="Constant", $F3,
-IF($B3="Linear",$C3*AY$1+$F3,
-IF($B3="Exponential", $C3 * POWER(AY$1 - $E3, $D3) + $F3,
-IF($B3="Sigmoid", IFERROR($D3 / (1 + POWER(2.718, $E3 - $C3 * AY$1)) + $F3, $F3),
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="L4" s="20">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22364239400000008</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24657910400000016</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.26882431400000006</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.29039206400000006</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31129625000000005</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33155062400000013</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35116879400000017</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.37016422399999999</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.38855023399999999</v>
+      </c>
+      <c r="V4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.40633999999999998</v>
+      </c>
+      <c r="W4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.42354655400000002</v>
+      </c>
+      <c r="X4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.44018278400000005</v>
+      </c>
+      <c r="Y4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.45626143400000002</v>
+      </c>
+      <c r="Z4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.47179510400000013</v>
+      </c>
+      <c r="AA4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.4867962500000001</v>
+      </c>
+      <c r="AB4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5012771840000001</v>
+      </c>
+      <c r="AC4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.51525007400000011</v>
+      </c>
+      <c r="AD4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.52872694399999998</v>
+      </c>
+      <c r="AE4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54171967399999998</v>
+      </c>
+      <c r="AF4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.55423999999999995</v>
+      </c>
+      <c r="AG4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.566299514</v>
+      </c>
+      <c r="AH4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.57790966399999999</v>
+      </c>
+      <c r="AI4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.58908175400000007</v>
+      </c>
+      <c r="AJ4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.59982694400000003</v>
+      </c>
+      <c r="AK4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.61015625000000007</v>
+      </c>
+      <c r="AL4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62008054400000012</v>
+      </c>
+      <c r="AM4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6296105540000001</v>
+      </c>
+      <c r="AN4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.63875686400000009</v>
+      </c>
+      <c r="AO4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.64752991400000004</v>
+      </c>
+      <c r="AP4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.65594000000000008</v>
+      </c>
+      <c r="AQ4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.66399727400000008</v>
+      </c>
+      <c r="AR4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.67171174400000011</v>
+      </c>
+      <c r="AS4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.67909327400000008</v>
+      </c>
+      <c r="AT4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.68615158400000009</v>
+      </c>
+      <c r="AU4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69289624999999999</v>
+      </c>
+      <c r="AV4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69933670400000003</v>
+      </c>
+      <c r="AW4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.70548223399999999</v>
+      </c>
+      <c r="AX4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.71134198400000004</v>
+      </c>
+      <c r="AY4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.716924954</v>
+      </c>
+      <c r="AZ4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.72223999999999999</v>
+      </c>
+      <c r="BA4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.72729583399999997</v>
+      </c>
+      <c r="BB4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73210102399999999</v>
+      </c>
+      <c r="BC4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73666399400000004</v>
+      </c>
+      <c r="BD4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.740993024</v>
+      </c>
+      <c r="BE4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74509625000000002</v>
+      </c>
+      <c r="BF4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.74898166399999999</v>
+      </c>
+      <c r="BG4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75265711400000002</v>
+      </c>
+      <c r="BH4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75613030400000003</v>
+      </c>
+      <c r="BI4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75940879400000005</v>
+      </c>
+      <c r="BJ4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="BK4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76541119400000002</v>
+      </c>
+      <c r="BL4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76814950400000004</v>
+      </c>
+      <c r="BM4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.77072191400000001</v>
+      </c>
+      <c r="BN4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.7731352640000001</v>
+      </c>
+      <c r="BO4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.77539625000000001</v>
+      </c>
+      <c r="BP4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.77751142400000006</v>
+      </c>
+      <c r="BQ4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.77948719399999999</v>
+      </c>
+      <c r="BR4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78132982400000006</v>
+      </c>
+      <c r="BS4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78304543400000004</v>
+      </c>
+      <c r="BT4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78464</v>
+      </c>
+      <c r="BU4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78611935399999999</v>
+      </c>
+      <c r="BV4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78748918400000001</v>
+      </c>
+      <c r="BW4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78875503400000002</v>
+      </c>
+      <c r="BX4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.78992230400000008</v>
+      </c>
+      <c r="BY4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79099625000000007</v>
+      </c>
+      <c r="BZ4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79198198400000008</v>
+      </c>
+      <c r="CA4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79288447400000006</v>
+      </c>
+      <c r="CB4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79370854400000002</v>
+      </c>
+      <c r="CC4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79445887400000004</v>
+      </c>
+      <c r="CD4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79514000000000007</v>
+      </c>
+      <c r="CE4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79575631400000002</v>
+      </c>
+      <c r="CF4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.7963120640000001</v>
+      </c>
+      <c r="CG4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79681135400000003</v>
+      </c>
+      <c r="CH4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79725814400000006</v>
+      </c>
+      <c r="CI4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79765625000000007</v>
+      </c>
+      <c r="CJ4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79800934400000001</v>
+      </c>
+      <c r="CK4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79832095400000003</v>
+      </c>
+      <c r="CL4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.798594464</v>
+      </c>
+      <c r="CM4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79883311400000001</v>
+      </c>
+      <c r="CN4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79904000000000008</v>
+      </c>
+      <c r="CO4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.799218074</v>
+      </c>
+      <c r="CP4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79937014400000006</v>
+      </c>
+      <c r="CQ4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79949887400000008</v>
+      </c>
+      <c r="CR4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79960678400000007</v>
+      </c>
+      <c r="CS4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79969625</v>
+      </c>
+      <c r="CT4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79976950400000002</v>
+      </c>
+      <c r="CU4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79982863400000004</v>
+      </c>
+      <c r="CV4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79987558400000003</v>
+      </c>
+      <c r="CW4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79991215400000004</v>
+      </c>
+      <c r="CX4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.7999400000000001</v>
+      </c>
+      <c r="CY4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79996063400000006</v>
+      </c>
+      <c r="CZ4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79997542399999999</v>
+      </c>
+      <c r="DA4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79998559400000002</v>
+      </c>
+      <c r="DB4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999222400000003</v>
+      </c>
+      <c r="DC4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999625000000008</v>
+      </c>
+      <c r="DD4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999846400000008</v>
+      </c>
+      <c r="DE4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999951400000002</v>
+      </c>
+      <c r="DF4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999990400000009</v>
+      </c>
+      <c r="DG4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.79999999399999999</v>
+      </c>
+      <c r="DH4" s="20">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="22">
+        <v>-0.6</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19"/>
+      <c r="L5" s="20">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999999399999999</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999990400000009</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999951400000002</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999846400000008</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999625000000008</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79999222400000003</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79998559400000002</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79997542399999999</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79996063400000006</v>
+      </c>
+      <c r="V5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7999400000000001</v>
+      </c>
+      <c r="W5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79991215400000004</v>
+      </c>
+      <c r="X5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79987558400000003</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79982863400000004</v>
+      </c>
+      <c r="Z5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79976950400000002</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79969625</v>
+      </c>
+      <c r="AB5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79960678400000007</v>
+      </c>
+      <c r="AC5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79949887400000008</v>
+      </c>
+      <c r="AD5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79937014400000006</v>
+      </c>
+      <c r="AE5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.799218074</v>
+      </c>
+      <c r="AF5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79904000000000008</v>
+      </c>
+      <c r="AG5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79883311400000001</v>
+      </c>
+      <c r="AH5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.798594464</v>
+      </c>
+      <c r="AI5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79832095400000003</v>
+      </c>
+      <c r="AJ5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79800934400000001</v>
+      </c>
+      <c r="AK5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79765625000000007</v>
+      </c>
+      <c r="AL5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79725814400000006</v>
+      </c>
+      <c r="AM5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79681135400000003</v>
+      </c>
+      <c r="AN5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7963120640000001</v>
+      </c>
+      <c r="AO5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79575631400000002</v>
+      </c>
+      <c r="AP5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79514000000000007</v>
+      </c>
+      <c r="AQ5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79445887400000004</v>
+      </c>
+      <c r="AR5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79370854400000002</v>
+      </c>
+      <c r="AS5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79288447400000006</v>
+      </c>
+      <c r="AT5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79198198400000008</v>
+      </c>
+      <c r="AU5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.79099625000000007</v>
+      </c>
+      <c r="AV5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78992230400000008</v>
+      </c>
+      <c r="AW5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78875503400000002</v>
+      </c>
+      <c r="AX5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78748918400000001</v>
+      </c>
+      <c r="AY5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78611935399999999</v>
+      </c>
+      <c r="AZ5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78464</v>
+      </c>
+      <c r="BA5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78304543400000004</v>
+      </c>
+      <c r="BB5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78132982400000006</v>
+      </c>
+      <c r="BC5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77948719400000011</v>
+      </c>
+      <c r="BD5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77751142400000006</v>
+      </c>
+      <c r="BE5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77539625000000001</v>
+      </c>
+      <c r="BF5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77313526399999999</v>
+      </c>
+      <c r="BG5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.77072191400000001</v>
+      </c>
+      <c r="BH5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76814950400000004</v>
+      </c>
+      <c r="BI5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76541119400000002</v>
+      </c>
+      <c r="BJ5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="BK5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75940879400000005</v>
+      </c>
+      <c r="BL5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.75613030400000003</v>
+      </c>
+      <c r="BM5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.75265711400000002</v>
+      </c>
+      <c r="BN5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.74898166399999999</v>
+      </c>
+      <c r="BO5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.74509625000000002</v>
+      </c>
+      <c r="BP5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.740993024</v>
+      </c>
+      <c r="BQ5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.73666399400000004</v>
+      </c>
+      <c r="BR5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.7321010240000001</v>
+      </c>
+      <c r="BS5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.72729583400000009</v>
+      </c>
+      <c r="BT5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.72223999999999999</v>
+      </c>
+      <c r="BU5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.716924954</v>
+      </c>
+      <c r="BV5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.71134198400000004</v>
+      </c>
+      <c r="BW5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.70548223399999999</v>
+      </c>
+      <c r="BX5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.69933670400000003</v>
+      </c>
+      <c r="BY5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.69289624999999999</v>
+      </c>
+      <c r="BZ5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.68615158400000009</v>
+      </c>
+      <c r="CA5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.67909327399999997</v>
+      </c>
+      <c r="CB5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.671711744</v>
+      </c>
+      <c r="CC5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.66399727400000008</v>
+      </c>
+      <c r="CD5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.65594000000000008</v>
+      </c>
+      <c r="CE5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.64752991400000004</v>
+      </c>
+      <c r="CF5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.63875686400000009</v>
+      </c>
+      <c r="CG5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.6296105540000001</v>
+      </c>
+      <c r="CH5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.62008054400000012</v>
+      </c>
+      <c r="CI5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.61015625000000007</v>
+      </c>
+      <c r="CJ5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.59982694400000003</v>
+      </c>
+      <c r="CK5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.58908175400000007</v>
+      </c>
+      <c r="CL5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.57790966399999999</v>
+      </c>
+      <c r="CM5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.566299514</v>
+      </c>
+      <c r="CN5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.55423999999999995</v>
+      </c>
+      <c r="CO5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.54171967399999998</v>
+      </c>
+      <c r="CP5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.5287269440000002</v>
+      </c>
+      <c r="CQ5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.51525007400000011</v>
+      </c>
+      <c r="CR5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.5012771840000001</v>
+      </c>
+      <c r="CS5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.4867962500000001</v>
+      </c>
+      <c r="CT5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.47179510400000013</v>
+      </c>
+      <c r="CU5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.45626143400000002</v>
+      </c>
+      <c r="CV5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.44018278400000005</v>
+      </c>
+      <c r="CW5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.42354655400000002</v>
+      </c>
+      <c r="CX5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.40633999999999998</v>
+      </c>
+      <c r="CY5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.38855023399999999</v>
+      </c>
+      <c r="CZ5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.37016422399999999</v>
+      </c>
+      <c r="DA5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.35116879399999995</v>
+      </c>
+      <c r="DB5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.33155062400000013</v>
+      </c>
+      <c r="DC5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.31129625000000005</v>
+      </c>
+      <c r="DD5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.29039206400000006</v>
+      </c>
+      <c r="DE5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.26882431400000006</v>
+      </c>
+      <c r="DF5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.24657910400000016</v>
+      </c>
+      <c r="DG5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.22364239400000008</v>
+      </c>
+      <c r="DH5" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>20</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="L6" s="20">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76488808964059984</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73150542851839995</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69978320295739993</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.66965467381759991</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.64105513437499995</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.61392186863359999</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.58819411006939981</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.56381300080640007</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54072155122460008</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.51886460000000012</v>
+      </c>
+      <c r="W6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.49818877457660005</v>
+      </c>
+      <c r="X6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.47864245207039996</v>
+      </c>
+      <c r="Y6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46017572060540002</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.44274034108159988</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.42628970937499994</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.41077881896959989</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.39616422402139995</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.38240400285440013</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.3694577218886001</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35728640000000012</v>
+      </c>
+      <c r="AG6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.34585247331260005</v>
+      </c>
+      <c r="AH6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33511976042240005</v>
+      </c>
+      <c r="AI6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.32505342805339998</v>
+      </c>
+      <c r="AJ6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31561995714559998</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.30678710937499998</v>
+      </c>
+      <c r="AL6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.29852389410559999</v>
+      </c>
+      <c r="AM6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.29080053577339998</v>
+      </c>
+      <c r="AN6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2835884417024</v>
+      </c>
+      <c r="AO6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27686017035260002</v>
+      </c>
+      <c r="AP6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.27058939999999998</v>
+      </c>
+      <c r="AQ6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.26475089784859995</v>
+      </c>
+      <c r="AR6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.25932048957439996</v>
+      </c>
+      <c r="AS6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2542750293014</v>
+      </c>
+      <c r="AT6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24959237000959997</v>
+      </c>
+      <c r="AU6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.24525133437500002</v>
+      </c>
+      <c r="AV6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2412316860416</v>
+      </c>
+      <c r="AW6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23751410132540002</v>
+      </c>
+      <c r="AX6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23408014135040001</v>
+      </c>
+      <c r="AY6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23091222461659999</v>
+      </c>
+      <c r="AZ6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22799360000000002</v>
+      </c>
+      <c r="BA6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22530832018460004</v>
+      </c>
+      <c r="BB6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22284121552640002</v>
+      </c>
+      <c r="BC6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.22057786834940002</v>
+      </c>
+      <c r="BD6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21850458767360001</v>
+      </c>
+      <c r="BE6" s="20">
+        <f t="shared" ref="BE6:BL6" si="6">MAX(MIN(
+IF($B6="Constant", $F6,
+IF($B6="Linear",$C6*BE$1+$F6,
+IF($B6="Exponential", $C6 * POWER(BE$1 - $E6, $D6) + $F6,
+IF($B6="Sigmoid", IFERROR($D6 / (1 + POWER(2.718, $E6 - $C6 * BE$1)) + $F6, $F6),
 0)))),
 1),0)</f>
-        <v>0.222</v>
-      </c>
-      <c r="AZ3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.22799999999999998</v>
-      </c>
-      <c r="BA3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23399999999999999</v>
-      </c>
-      <c r="BB3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.24</v>
-      </c>
-      <c r="BC3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.24599999999999997</v>
-      </c>
-      <c r="BD3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.252</v>
-      </c>
-      <c r="BE3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="BF3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="BG3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.27</v>
-      </c>
-      <c r="BH3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="BI3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.28199999999999997</v>
-      </c>
-      <c r="BJ3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="BK3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="BL3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BM3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="BN3" s="20">
-        <f t="shared" si="5"/>
-        <v>0.312</v>
-      </c>
-      <c r="BO3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.318</v>
-      </c>
-      <c r="BP3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="BQ3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.33</v>
-      </c>
-      <c r="BR3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="BS3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.34199999999999997</v>
-      </c>
-      <c r="BT3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="BU3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="BV3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.36</v>
-      </c>
-      <c r="BW3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="BX3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.372</v>
-      </c>
-      <c r="BY3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.378</v>
-      </c>
-      <c r="BZ3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="CA3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.39</v>
-      </c>
-      <c r="CB3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="CC3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="CD3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.40800000000000003</v>
-      </c>
-      <c r="CE3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="CF3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.42</v>
-      </c>
-      <c r="CG3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="CH3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.432</v>
-      </c>
-      <c r="CI3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.438</v>
-      </c>
-      <c r="CJ3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="CK3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="CL3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.45599999999999996</v>
-      </c>
-      <c r="CM3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46199999999999997</v>
-      </c>
-      <c r="CN3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.46799999999999997</v>
-      </c>
-      <c r="CO3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="CP3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="CQ3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="CR3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.49199999999999994</v>
-      </c>
-      <c r="CS3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.49799999999999994</v>
-      </c>
-      <c r="CT3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.504</v>
-      </c>
-      <c r="CU3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51</v>
-      </c>
-      <c r="CV3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="CW3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="CX3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="CY3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="CZ3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-      <c r="DA3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="DB3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="DC3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="DD3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="DE3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="DF3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="DG3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="DH3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="DI3" s="20">
-        <f t="shared" si="1"/>
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="DJ3" s="20">
-        <f t="shared" si="1"/>
+        <v>0.21660838437500002</v>
+      </c>
+      <c r="BF6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.21487694677760003</v>
+      </c>
+      <c r="BG6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.21329861667740002</v>
+      </c>
+      <c r="BH6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.21186236579840001</v>
+      </c>
+      <c r="BI6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.2105577726806</v>
+      </c>
+      <c r="BJ6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.20937500000000001</v>
+      </c>
+      <c r="BK6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.20830477232060002</v>
+      </c>
+      <c r="BL6" s="20">
+        <f t="shared" si="6"/>
+        <v>0.2073383542784</v>
+      </c>
+      <c r="BM6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20646752919740002</v>
+      </c>
+      <c r="BN6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20568457813759999</v>
+      </c>
+      <c r="BO6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.204982259375</v>
+      </c>
+      <c r="BP6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20435378831360002</v>
+      </c>
+      <c r="BQ6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20379281782940001</v>
+      </c>
+      <c r="BR6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20329341904640003</v>
+      </c>
+      <c r="BS6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2028500625446</v>
+      </c>
+      <c r="BT6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20245760000000002</v>
+      </c>
+      <c r="BU6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20211124625660001</v>
+      </c>
+      <c r="BV6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20180656183040002</v>
+      </c>
+      <c r="BW6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20153943584540002</v>
+      </c>
+      <c r="BX6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20130606940160001</v>
+      </c>
+      <c r="BY6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.201102959375</v>
+      </c>
+      <c r="BZ6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20092688264960001</v>
+      </c>
+      <c r="CA6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20077488078140002</v>
+      </c>
+      <c r="CB6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20064424509440001</v>
+      </c>
+      <c r="CC6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2005325022086</v>
+      </c>
+      <c r="CD6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20043740000000002</v>
+      </c>
+      <c r="CE6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20035689399260001</v>
+      </c>
+      <c r="CF6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20028913418240002</v>
+      </c>
+      <c r="CG6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2002324522934</v>
+      </c>
+      <c r="CH6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20018534946560002</v>
+      </c>
+      <c r="CI6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20014648437500002</v>
+      </c>
+      <c r="CJ6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2001146617856</v>
+      </c>
+      <c r="CK6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20008882153340002</v>
+      </c>
+      <c r="CL6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000680279424</v>
+      </c>
+      <c r="CM6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20005145967260002</v>
+      </c>
+      <c r="CN6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20003840000000001</v>
+      </c>
+      <c r="CO6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000282275286</v>
+      </c>
+      <c r="CP6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20002040733440002</v>
+      </c>
+      <c r="CQ6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000144825414</v>
+      </c>
+      <c r="CR6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000100663296</v>
+      </c>
+      <c r="CS6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.200006834375</v>
+      </c>
+      <c r="CT6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000451772160002</v>
+      </c>
+      <c r="CU6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000289608540001</v>
+      </c>
+      <c r="CV6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000179159040002</v>
+      </c>
+      <c r="CW6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000010629366</v>
+      </c>
+      <c r="CX6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000006</v>
+      </c>
+      <c r="CY6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000031886460001</v>
+      </c>
+      <c r="CZ6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000001572864</v>
+      </c>
+      <c r="DA6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000000705894</v>
+      </c>
+      <c r="DB6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000000279936</v>
+      </c>
+      <c r="DC6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000000937500001</v>
+      </c>
+      <c r="DD6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000000245760002</v>
+      </c>
+      <c r="DE6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000000043740002</v>
+      </c>
+      <c r="DF6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.20000000003840002</v>
+      </c>
+      <c r="DG6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2000000000006</v>
+      </c>
+      <c r="DH6" s="20">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-0.6</v>
+      </c>
+      <c r="D7" s="18">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>20</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="L7" s="20">
+        <f t="shared" ref="L7:P9" si="7">MAX(MIN(
+IF($B7="Constant", $F7,
+IF($B7="Linear",$C7*L$1+$F7,
+IF($B7="Exponential", $C7 * POWER(L$1 - $E7, $D7) + $F7,
+IF($B7="Sigmoid", IFERROR($D7 / (1 + POWER(2.718, $E7 - $C7 * L$1)) + $F7, $F7),
+0)))),
+1),0)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.23511191035940016</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.26849457148160016</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.30021679704260013</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="7"/>
+        <v>0.33034532618240009</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" ref="Q7:AF9" si="8">MAX(MIN(
+IF($B7="Constant", $F7,
+IF($B7="Linear",$C7*Q$1+$F7,
+IF($B7="Exponential", $C7 * POWER(Q$1 - $E7, $D7) + $F7,
+IF($B7="Sigmoid", IFERROR($D7 / (1 + POWER(2.718, $E7 - $C7 * Q$1)) + $F7, $F7),
+0)))),
+1),0)</f>
+        <v>0.35894486562500011</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.38607813136640007</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.41180588993060024</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.43618699919359999</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.45927844877539997</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.48113539999999994</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.50181122542339995</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.5213575479296001</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.53982427939459998</v>
+      </c>
+      <c r="Z7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.55725965891840012</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.57371029062500012</v>
+      </c>
+      <c r="AB7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.58922118103040011</v>
+      </c>
+      <c r="AC7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.60383577597860005</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.61759599714559998</v>
+      </c>
+      <c r="AE7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.63054227811139996</v>
+      </c>
+      <c r="AF7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.6427136</v>
+      </c>
+      <c r="AG7" s="20">
+        <f t="shared" ref="AG7:AV9" si="9">MAX(MIN(
+IF($B7="Constant", $F7,
+IF($B7="Linear",$C7*AG$1+$F7,
+IF($B7="Exponential", $C7 * POWER(AG$1 - $E7, $D7) + $F7,
+IF($B7="Sigmoid", IFERROR($D7 / (1 + POWER(2.718, $E7 - $C7 * AG$1)) + $F7, $F7),
+0)))),
+1),0)</f>
+        <v>0.65414752668739995</v>
+      </c>
+      <c r="AH7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.66488023957760001</v>
+      </c>
+      <c r="AI7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.67494657194660013</v>
+      </c>
+      <c r="AJ7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.68438004285440002</v>
+      </c>
+      <c r="AK7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.69321289062500002</v>
+      </c>
+      <c r="AL7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.70147610589440001</v>
+      </c>
+      <c r="AM7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.70919946422660007</v>
+      </c>
+      <c r="AN7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.71641155829760006</v>
+      </c>
+      <c r="AO7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.72313982964740009</v>
+      </c>
+      <c r="AP7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.72941060000000002</v>
+      </c>
+      <c r="AQ7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.73524910215140005</v>
+      </c>
+      <c r="AR7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.7406795104256001</v>
+      </c>
+      <c r="AS7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.74572497069860011</v>
+      </c>
+      <c r="AT7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75040762999040012</v>
+      </c>
+      <c r="AU7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75474866562499998</v>
+      </c>
+      <c r="AV7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75876831395840005</v>
+      </c>
+      <c r="AW7" s="20">
+        <f t="shared" ref="AW7:BL9" si="10">MAX(MIN(
+IF($B7="Constant", $F7,
+IF($B7="Linear",$C7*AW$1+$F7,
+IF($B7="Exponential", $C7 * POWER(AW$1 - $E7, $D7) + $F7,
+IF($B7="Sigmoid", IFERROR($D7 / (1 + POWER(2.718, $E7 - $C7 * AW$1)) + $F7, $F7),
+0)))),
+1),0)</f>
+        <v>0.76248589867460004</v>
+      </c>
+      <c r="AX7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.76591985864959999</v>
+      </c>
+      <c r="AY7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.76908777538340001</v>
+      </c>
+      <c r="AZ7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77200640000000009</v>
+      </c>
+      <c r="BA7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77469167981539999</v>
+      </c>
+      <c r="BB7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77715878447359998</v>
+      </c>
+      <c r="BC7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77942213165060004</v>
+      </c>
+      <c r="BD7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78149541232640007</v>
+      </c>
+      <c r="BE7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78339161562500004</v>
+      </c>
+      <c r="BF7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78512305322240006</v>
+      </c>
+      <c r="BG7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78670138332260009</v>
+      </c>
+      <c r="BH7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78813763420159999</v>
+      </c>
+      <c r="BI7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78944222731940006</v>
+      </c>
+      <c r="BJ7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79062500000000002</v>
+      </c>
+      <c r="BK7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79169522767940004</v>
+      </c>
+      <c r="BL7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79266164572160003</v>
+      </c>
+      <c r="BM7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79353247080260003</v>
+      </c>
+      <c r="BN7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79431542186240001</v>
+      </c>
+      <c r="BO7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79501774062500008</v>
+      </c>
+      <c r="BP7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79564621168640004</v>
+      </c>
+      <c r="BQ7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79620718217060005</v>
+      </c>
+      <c r="BR7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79670658095360003</v>
+      </c>
+      <c r="BS7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79714993745540008</v>
+      </c>
+      <c r="BT7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7975424000000001</v>
+      </c>
+      <c r="BU7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79788875374340007</v>
+      </c>
+      <c r="BV7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79819343816960009</v>
+      </c>
+      <c r="BW7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79846056415460009</v>
+      </c>
+      <c r="BX7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79869393059839999</v>
+      </c>
+      <c r="BY7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.798897040625</v>
+      </c>
+      <c r="BZ7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7990731173504001</v>
+      </c>
+      <c r="CA7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79922511921860007</v>
+      </c>
+      <c r="CB7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79935575490560007</v>
+      </c>
+      <c r="CC7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79946749779140003</v>
+      </c>
+      <c r="CD7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79956260000000001</v>
+      </c>
+      <c r="CE7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79964310600740007</v>
+      </c>
+      <c r="CF7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79971086581760009</v>
+      </c>
+      <c r="CG7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79976754770660008</v>
+      </c>
+      <c r="CH7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79981465053440004</v>
+      </c>
+      <c r="CI7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79985351562500007</v>
+      </c>
+      <c r="CJ7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7998853382144</v>
+      </c>
+      <c r="CK7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79991117846660009</v>
+      </c>
+      <c r="CL7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79993197205760003</v>
+      </c>
+      <c r="CM7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79994854032740004</v>
+      </c>
+      <c r="CN7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79996160000000005</v>
+      </c>
+      <c r="CO7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79997177247140006</v>
+      </c>
+      <c r="CP7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79997959266560004</v>
+      </c>
+      <c r="CQ7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79998551745860003</v>
+      </c>
+      <c r="CR7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79998993367040006</v>
+      </c>
+      <c r="CS7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.799993165625</v>
+      </c>
+      <c r="CT7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999548227840001</v>
+      </c>
+      <c r="CU7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999710391459999</v>
+      </c>
+      <c r="CV7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999820840960001</v>
+      </c>
+      <c r="CW7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999893706340008</v>
+      </c>
+      <c r="CX7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999940000000003</v>
+      </c>
+      <c r="CY7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7999996811354001</v>
+      </c>
+      <c r="CZ7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999984271360003</v>
+      </c>
+      <c r="DA7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999992941060005</v>
+      </c>
+      <c r="DB7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999997200640005</v>
+      </c>
+      <c r="DC7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999062500005</v>
+      </c>
+      <c r="DD7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999754240003</v>
+      </c>
+      <c r="DE7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999956260004</v>
+      </c>
+      <c r="DF7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999996160009</v>
+      </c>
+      <c r="DG7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999999940008</v>
+      </c>
+      <c r="DH7" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:114" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D8" s="18">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>180</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="L8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.76488808964059984</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.73150542851839995</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.69978320295739993</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.66965467381759991</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.64105513437499995</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.61392186863359999</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.58819411006939981</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.56381300080640007</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.54072155122460008</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.51886460000000012</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.49818877457660005</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.47864245207039996</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.46017572060540002</v>
+      </c>
+      <c r="Z8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.44274034108159988</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.42628970937499994</v>
+      </c>
+      <c r="AB8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.41077881896959989</v>
+      </c>
+      <c r="AC8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.39616422402139995</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.38240400285440013</v>
+      </c>
+      <c r="AE8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.3694577218886001</v>
+      </c>
+      <c r="AF8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.35728640000000012</v>
+      </c>
+      <c r="AG8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.34585247331260005</v>
+      </c>
+      <c r="AH8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.33511976042240005</v>
+      </c>
+      <c r="AI8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.32505342805339998</v>
+      </c>
+      <c r="AJ8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.31561995714559998</v>
+      </c>
+      <c r="AK8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.30678710937499998</v>
+      </c>
+      <c r="AL8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.29852389410559999</v>
+      </c>
+      <c r="AM8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.29080053577339998</v>
+      </c>
+      <c r="AN8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.2835884417024</v>
+      </c>
+      <c r="AO8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.27686017035260002</v>
+      </c>
+      <c r="AP8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.27058939999999998</v>
+      </c>
+      <c r="AQ8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.26475089784859995</v>
+      </c>
+      <c r="AR8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.25932048957439996</v>
+      </c>
+      <c r="AS8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.2542750293014</v>
+      </c>
+      <c r="AT8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.24959237000959997</v>
+      </c>
+      <c r="AU8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.24525133437500002</v>
+      </c>
+      <c r="AV8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.2412316860416</v>
+      </c>
+      <c r="AW8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23751410132540002</v>
+      </c>
+      <c r="AX8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23408014135040001</v>
+      </c>
+      <c r="AY8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23091222461659999</v>
+      </c>
+      <c r="AZ8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22799360000000002</v>
+      </c>
+      <c r="BA8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22530832018460004</v>
+      </c>
+      <c r="BB8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22284121552640002</v>
+      </c>
+      <c r="BC8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22057786834940002</v>
+      </c>
+      <c r="BD8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21850458767360001</v>
+      </c>
+      <c r="BE8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21660838437500002</v>
+      </c>
+      <c r="BF8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21487694677760003</v>
+      </c>
+      <c r="BG8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21329861667740002</v>
+      </c>
+      <c r="BH8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21186236579840001</v>
+      </c>
+      <c r="BI8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.2105577726806</v>
+      </c>
+      <c r="BJ8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.20937500000000001</v>
+      </c>
+      <c r="BK8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.20830477232060002</v>
+      </c>
+      <c r="BL8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.2073383542784</v>
+      </c>
+      <c r="BM8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20646752919740002</v>
+      </c>
+      <c r="BN8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20568457813759999</v>
+      </c>
+      <c r="BO8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.204982259375</v>
+      </c>
+      <c r="BP8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20435378831360002</v>
+      </c>
+      <c r="BQ8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20379281782940001</v>
+      </c>
+      <c r="BR8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20329341904640003</v>
+      </c>
+      <c r="BS8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2028500625446</v>
+      </c>
+      <c r="BT8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20245760000000002</v>
+      </c>
+      <c r="BU8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20211124625660001</v>
+      </c>
+      <c r="BV8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20180656183040002</v>
+      </c>
+      <c r="BW8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20153943584540002</v>
+      </c>
+      <c r="BX8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20130606940160001</v>
+      </c>
+      <c r="BY8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.201102959375</v>
+      </c>
+      <c r="BZ8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20092688264960001</v>
+      </c>
+      <c r="CA8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20077488078140002</v>
+      </c>
+      <c r="CB8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20064424509440001</v>
+      </c>
+      <c r="CC8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2005325022086</v>
+      </c>
+      <c r="CD8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20043740000000002</v>
+      </c>
+      <c r="CE8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20035689399260001</v>
+      </c>
+      <c r="CF8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20028913418240002</v>
+      </c>
+      <c r="CG8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2002324522934</v>
+      </c>
+      <c r="CH8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20018534946560002</v>
+      </c>
+      <c r="CI8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20014648437500002</v>
+      </c>
+      <c r="CJ8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2001146617856</v>
+      </c>
+      <c r="CK8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20008882153340002</v>
+      </c>
+      <c r="CL8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000680279424</v>
+      </c>
+      <c r="CM8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20005145967260002</v>
+      </c>
+      <c r="CN8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20003840000000001</v>
+      </c>
+      <c r="CO8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000282275286</v>
+      </c>
+      <c r="CP8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20002040733440002</v>
+      </c>
+      <c r="CQ8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000144825414</v>
+      </c>
+      <c r="CR8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000100663296</v>
+      </c>
+      <c r="CS8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.200006834375</v>
+      </c>
+      <c r="CT8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000451772160002</v>
+      </c>
+      <c r="CU8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000289608540001</v>
+      </c>
+      <c r="CV8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000179159040002</v>
+      </c>
+      <c r="CW8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000010629366</v>
+      </c>
+      <c r="CX8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000006</v>
+      </c>
+      <c r="CY8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000031886460001</v>
+      </c>
+      <c r="CZ8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000001572864</v>
+      </c>
+      <c r="DA8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000000705894</v>
+      </c>
+      <c r="DB8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000000279936</v>
+      </c>
+      <c r="DC8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000937500001</v>
+      </c>
+      <c r="DD8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000245760002</v>
+      </c>
+      <c r="DE8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000043740002</v>
+      </c>
+      <c r="DF8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20000000003840002</v>
+      </c>
+      <c r="DG8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2000000000006</v>
+      </c>
+      <c r="DH8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:112" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="N4" s="20">
-        <f t="shared" si="2"/>
+      <c r="C9" s="18">
+        <v>-0.6</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BA4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BN4" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BO4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BT4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BV4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BX4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BY4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CC4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CE4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CF4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CG4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CH4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CI4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CK4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CL4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CM4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CN4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CO4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CP4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CR4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CS4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CT4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CU4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CV4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CW4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CX4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CY4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DA4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DB4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DC4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DD4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DE4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DF4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DG4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DH4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DI4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:114" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="N5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="U5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="V5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="W5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="X5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="Y5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="Z5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="AA5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="AB5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="AC5" s="20">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="AD5" s="20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="AE5" s="20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="AF5" s="20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="AG5" s="20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="AH5" s="20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="AI5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AJ5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AK5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AL5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AM5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AN5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AO5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AP5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AQ5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AR5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AS5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AT5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AU5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AV5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AW5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AX5" s="20">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
-      <c r="AY5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="AZ5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BA5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BB5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BC5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BD5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BE5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BF5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BG5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BH5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BI5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BJ5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BK5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BL5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BM5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BN5" s="20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="BO5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BP5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BQ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BR5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BS5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BT5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BU5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BV5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BW5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BX5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BY5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="BZ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CA5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CB5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CC5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CD5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CE5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CF5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CG5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CH5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CI5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CJ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CK5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CL5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CM5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CN5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CO5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CP5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CQ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CR5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CS5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CT5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CU5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CV5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CW5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CX5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CY5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="CZ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DA5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DB5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DC5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DD5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DE5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DF5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DG5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DH5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DI5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="DJ5" s="20">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:114" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18">
-        <v>20</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>10</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="N6" s="20">
-        <f t="shared" si="2"/>
-        <v>4.5444961422207817E-5</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" si="2"/>
-        <v>5.5504891798862814E-5</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="2"/>
-        <v>6.7791589127155996E-5</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="2"/>
-        <v>8.279787433754918E-5</v>
-      </c>
-      <c r="R6" s="20">
-        <f t="shared" si="2"/>
-        <v>1.0112560140877947E-4</v>
-      </c>
-      <c r="S6" s="20">
-        <f t="shared" si="2"/>
-        <v>1.235097621895835E-4</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="2"/>
-        <v>1.5084791144405834E-4</v>
-      </c>
-      <c r="U6" s="20">
-        <f t="shared" si="2"/>
-        <v>1.842360820172714E-4</v>
-      </c>
-      <c r="V6" s="20">
-        <f t="shared" si="2"/>
-        <v>2.2501261513667133E-4</v>
-      </c>
-      <c r="W6" s="20">
-        <f t="shared" si="2"/>
-        <v>2.7481164056307466E-4</v>
-      </c>
-      <c r="X6" s="20">
-        <f t="shared" si="2"/>
-        <v>3.3562831673547046E-4</v>
-      </c>
-      <c r="Y6" s="20">
-        <f t="shared" si="2"/>
-        <v>4.0989839538460566E-4</v>
-      </c>
-      <c r="Z6" s="20">
-        <f t="shared" si="2"/>
-        <v>5.0059522372971103E-4</v>
-      </c>
-      <c r="AA6" s="20">
-        <f t="shared" si="2"/>
-        <v>6.1134795813862924E-4</v>
-      </c>
-      <c r="AB6" s="20">
-        <f t="shared" si="2"/>
-        <v>7.4658555630057865E-4</v>
-      </c>
-      <c r="AC6" s="20">
-        <f t="shared" si="2"/>
-        <v>9.1171206309743306E-4</v>
-      </c>
-      <c r="AD6" s="20">
-        <f t="shared" si="3"/>
-        <v>1.113319832769021E-3</v>
-      </c>
-      <c r="AE6" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3594486615325536E-3</v>
-      </c>
-      <c r="AF6" s="20">
-        <f t="shared" si="3"/>
-        <v>1.6599003638533634E-3</v>
-      </c>
-      <c r="AG6" s="20">
-        <f t="shared" si="3"/>
-        <v>2.0266201301698621E-3</v>
-      </c>
-      <c r="AH6" s="20">
-        <f t="shared" si="3"/>
-        <v>2.4741580609679895E-3</v>
-      </c>
-      <c r="AI6" s="20">
-        <f t="shared" si="4"/>
-        <v>3.0202265680257358E-3</v>
-      </c>
-      <c r="AJ6" s="20">
-        <f t="shared" si="4"/>
-        <v>3.6863718197455786E-3</v>
-      </c>
-      <c r="AK6" s="20">
-        <f t="shared" si="4"/>
-        <v>4.4987799783868963E-3</v>
-      </c>
-      <c r="AL6" s="20">
-        <f t="shared" si="4"/>
-        <v>5.4892414386339778E-3</v>
-      </c>
-      <c r="AM6" s="20">
-        <f t="shared" si="4"/>
-        <v>6.6962983003919074E-3</v>
-      </c>
-      <c r="AN6" s="20">
-        <f t="shared" si="4"/>
-        <v>8.1666013652351137E-3</v>
-      </c>
-      <c r="AO6" s="20">
-        <f t="shared" si="4"/>
-        <v>9.9565022177848135E-3</v>
-      </c>
-      <c r="AP6" s="20">
-        <f t="shared" si="4"/>
-        <v>1.2133902215849092E-2</v>
-      </c>
-      <c r="AQ6" s="20">
-        <f t="shared" si="4"/>
-        <v>1.4780371686828818E-2</v>
-      </c>
-      <c r="AR6" s="20">
-        <f t="shared" si="4"/>
-        <v>1.7993536805962364E-2</v>
-      </c>
-      <c r="AS6" s="20">
-        <f t="shared" si="4"/>
-        <v>2.1889705107245177E-2</v>
-      </c>
-      <c r="AT6" s="20">
-        <f t="shared" si="4"/>
-        <v>2.6606658921729542E-2</v>
-      </c>
-      <c r="AU6" s="20">
-        <f t="shared" si="4"/>
-        <v>3.2306483838866897E-2</v>
-      </c>
-      <c r="AV6" s="20">
-        <f t="shared" si="4"/>
-        <v>3.9178210538129497E-2</v>
-      </c>
-      <c r="AW6" s="20">
-        <f t="shared" si="4"/>
-        <v>4.7439927483038422E-2</v>
-      </c>
-      <c r="AX6" s="20">
-        <f t="shared" si="4"/>
-        <v>5.7339866042295219E-2</v>
-      </c>
-      <c r="AY6" s="20">
-        <f t="shared" si="5"/>
-        <v>6.9155772011333605E-2</v>
-      </c>
-      <c r="AZ6" s="20">
-        <f t="shared" si="5"/>
-        <v>8.3191673927821494E-2</v>
-      </c>
-      <c r="BA6" s="20">
-        <f t="shared" si="5"/>
-        <v>9.9770974929575929E-2</v>
-      </c>
-      <c r="BB6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.1192246961081721</v>
-      </c>
-      <c r="BC6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.14187378497131847</v>
-      </c>
-      <c r="BD6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.16800480223420255</v>
-      </c>
-      <c r="BE6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.19783914683090376</v>
-      </c>
-      <c r="BF6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.23149735106695557</v>
-      </c>
-      <c r="BG6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.26896180742334591</v>
-      </c>
-      <c r="BH6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.31004326240874142</v>
-      </c>
-      <c r="BI6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.35435792669948873</v>
-      </c>
-      <c r="BJ6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.40132230443244421</v>
-      </c>
-      <c r="BK6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.45017113540790898</v>
-      </c>
-      <c r="BL6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="BM6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.54982886459209102</v>
-      </c>
-      <c r="BN6" s="20">
-        <f t="shared" si="5"/>
-        <v>0.59867769556755579</v>
-      </c>
-      <c r="BO6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.64564207330051127</v>
-      </c>
-      <c r="BP6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.68995673759125897</v>
-      </c>
-      <c r="BQ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.73103819257665414</v>
-      </c>
-      <c r="BR6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.76850264893304476</v>
-      </c>
-      <c r="BS6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.80216085316909602</v>
-      </c>
-      <c r="BT6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.83199519776579756</v>
-      </c>
-      <c r="BU6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.85812621502868136</v>
-      </c>
-      <c r="BV6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.8807753038918279</v>
-      </c>
-      <c r="BW6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.90022902507042402</v>
-      </c>
-      <c r="BX6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.91680832607217855</v>
-      </c>
-      <c r="BY6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.9308442279886664</v>
-      </c>
-      <c r="BZ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.94266013395770476</v>
-      </c>
-      <c r="CA6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.95256007251696162</v>
-      </c>
-      <c r="CB6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.96082178946187058</v>
-      </c>
-      <c r="CC6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.96769351616113319</v>
-      </c>
-      <c r="CD6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.97339334107827058</v>
-      </c>
-      <c r="CE6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.97811029489275481</v>
-      </c>
-      <c r="CF6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.98200646319403762</v>
-      </c>
-      <c r="CG6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.98521962831317111</v>
-      </c>
-      <c r="CH6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.98786609778415102</v>
-      </c>
-      <c r="CI6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99004349778221523</v>
-      </c>
-      <c r="CJ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99183339863476494</v>
-      </c>
-      <c r="CK6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99330370169960813</v>
-      </c>
-      <c r="CL6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99451075856136595</v>
-      </c>
-      <c r="CM6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99550122002161312</v>
-      </c>
-      <c r="CN6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99631362818025448</v>
-      </c>
-      <c r="CO6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99697977343197419</v>
-      </c>
-      <c r="CP6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99752584193903204</v>
-      </c>
-      <c r="CQ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99797337986983015</v>
-      </c>
-      <c r="CR6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99834009963614656</v>
-      </c>
-      <c r="CS6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.9986405513384673</v>
-      </c>
-      <c r="CT6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99888668016723114</v>
-      </c>
-      <c r="CU6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99908828793690252</v>
-      </c>
-      <c r="CV6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99925341444369942</v>
-      </c>
-      <c r="CW6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99938865204186134</v>
-      </c>
-      <c r="CX6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99949940477627031</v>
-      </c>
-      <c r="CY6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99959010160461537</v>
-      </c>
-      <c r="CZ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99966437168326461</v>
-      </c>
-      <c r="DA6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99972518835943702</v>
-      </c>
-      <c r="DB6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99977498738486337</v>
-      </c>
-      <c r="DC6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99981576391798277</v>
-      </c>
-      <c r="DD6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99984915208855596</v>
-      </c>
-      <c r="DE6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99987649023781044</v>
-      </c>
-      <c r="DF6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99989887439859115</v>
-      </c>
-      <c r="DG6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99991720212566249</v>
-      </c>
-      <c r="DH6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99993220841087282</v>
-      </c>
-      <c r="DI6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99994449510820116</v>
-      </c>
-      <c r="DJ6" s="20">
-        <f t="shared" si="1"/>
-        <v>0.99995455503857777</v>
+      <c r="I9" s="18">
+        <v>180</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="L9" s="20">
+        <f t="shared" si="7"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23511191035940016</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.26849457148160016</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.30021679704260013</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33034532618240009</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.35894486562500011</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.38607813136640007</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.41180588993060024</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.43618699919359999</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.45927844877539997</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.48113539999999994</v>
+      </c>
+      <c r="W9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.50181122542339995</v>
+      </c>
+      <c r="X9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.5213575479296001</v>
+      </c>
+      <c r="Y9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.53982427939459998</v>
+      </c>
+      <c r="Z9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.55725965891840012</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.57371029062500012</v>
+      </c>
+      <c r="AB9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.58922118103040011</v>
+      </c>
+      <c r="AC9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.60383577597860005</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.61759599714559998</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.63054227811139996</v>
+      </c>
+      <c r="AF9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.6427136</v>
+      </c>
+      <c r="AG9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.65414752668739995</v>
+      </c>
+      <c r="AH9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.66488023957760001</v>
+      </c>
+      <c r="AI9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.67494657194660013</v>
+      </c>
+      <c r="AJ9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.68438004285440002</v>
+      </c>
+      <c r="AK9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.69321289062500002</v>
+      </c>
+      <c r="AL9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.70147610589440001</v>
+      </c>
+      <c r="AM9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.70919946422660007</v>
+      </c>
+      <c r="AN9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.71641155829760006</v>
+      </c>
+      <c r="AO9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.72313982964740009</v>
+      </c>
+      <c r="AP9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.72941060000000002</v>
+      </c>
+      <c r="AQ9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.73524910215140005</v>
+      </c>
+      <c r="AR9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.7406795104256001</v>
+      </c>
+      <c r="AS9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.74572497069860011</v>
+      </c>
+      <c r="AT9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75040762999040012</v>
+      </c>
+      <c r="AU9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75474866562499998</v>
+      </c>
+      <c r="AV9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.75876831395840005</v>
+      </c>
+      <c r="AW9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.76248589867460004</v>
+      </c>
+      <c r="AX9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.76591985864959999</v>
+      </c>
+      <c r="AY9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.76908777538340001</v>
+      </c>
+      <c r="AZ9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77200640000000009</v>
+      </c>
+      <c r="BA9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77469167981539999</v>
+      </c>
+      <c r="BB9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77715878447359998</v>
+      </c>
+      <c r="BC9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.77942213165060004</v>
+      </c>
+      <c r="BD9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78149541232640007</v>
+      </c>
+      <c r="BE9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78339161562500004</v>
+      </c>
+      <c r="BF9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78512305322240006</v>
+      </c>
+      <c r="BG9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78670138332260009</v>
+      </c>
+      <c r="BH9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78813763420159999</v>
+      </c>
+      <c r="BI9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.78944222731940006</v>
+      </c>
+      <c r="BJ9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79062500000000002</v>
+      </c>
+      <c r="BK9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79169522767940004</v>
+      </c>
+      <c r="BL9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.79266164572160003</v>
+      </c>
+      <c r="BM9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79353247080260003</v>
+      </c>
+      <c r="BN9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79431542186240001</v>
+      </c>
+      <c r="BO9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79501774062500008</v>
+      </c>
+      <c r="BP9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79564621168640004</v>
+      </c>
+      <c r="BQ9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79620718217060005</v>
+      </c>
+      <c r="BR9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79670658095360003</v>
+      </c>
+      <c r="BS9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79714993745540008</v>
+      </c>
+      <c r="BT9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7975424000000001</v>
+      </c>
+      <c r="BU9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79788875374340007</v>
+      </c>
+      <c r="BV9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79819343816960009</v>
+      </c>
+      <c r="BW9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79846056415460009</v>
+      </c>
+      <c r="BX9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79869393059839999</v>
+      </c>
+      <c r="BY9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.798897040625</v>
+      </c>
+      <c r="BZ9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7990731173504001</v>
+      </c>
+      <c r="CA9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79922511921860007</v>
+      </c>
+      <c r="CB9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79935575490560007</v>
+      </c>
+      <c r="CC9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79946749779140003</v>
+      </c>
+      <c r="CD9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79956260000000001</v>
+      </c>
+      <c r="CE9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79964310600740007</v>
+      </c>
+      <c r="CF9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79971086581760009</v>
+      </c>
+      <c r="CG9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79976754770660008</v>
+      </c>
+      <c r="CH9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79981465053440004</v>
+      </c>
+      <c r="CI9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79985351562500007</v>
+      </c>
+      <c r="CJ9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7998853382144</v>
+      </c>
+      <c r="CK9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79991117846660009</v>
+      </c>
+      <c r="CL9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79993197205760003</v>
+      </c>
+      <c r="CM9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79994854032740004</v>
+      </c>
+      <c r="CN9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79996160000000005</v>
+      </c>
+      <c r="CO9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79997177247140006</v>
+      </c>
+      <c r="CP9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79997959266560004</v>
+      </c>
+      <c r="CQ9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79998551745860003</v>
+      </c>
+      <c r="CR9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79998993367040006</v>
+      </c>
+      <c r="CS9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.799993165625</v>
+      </c>
+      <c r="CT9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999548227840001</v>
+      </c>
+      <c r="CU9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999710391459999</v>
+      </c>
+      <c r="CV9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999820840960001</v>
+      </c>
+      <c r="CW9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999893706340008</v>
+      </c>
+      <c r="CX9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999940000000003</v>
+      </c>
+      <c r="CY9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.7999996811354001</v>
+      </c>
+      <c r="CZ9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999984271360003</v>
+      </c>
+      <c r="DA9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999992941060005</v>
+      </c>
+      <c r="DB9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999997200640005</v>
+      </c>
+      <c r="DC9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999062500005</v>
+      </c>
+      <c r="DD9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999754240003</v>
+      </c>
+      <c r="DE9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999956260004</v>
+      </c>
+      <c r="DF9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999996160009</v>
+      </c>
+      <c r="DG9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.79999999999940008</v>
+      </c>
+      <c r="DH9" s="20">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9">
       <formula1>lstEquation</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G9">
+      <formula1>lstFactType</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15306,24 +16752,2622 @@
           <x14:colorLow theme="7" tint="-0.499984740745262"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Considerations!N2:DJ2</xm:f>
-              <xm:sqref>I2</xm:sqref>
+              <xm:f>Considerations!L8:DH8</xm:f>
+              <xm:sqref>J8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" lineWeight="2.25" displayEmptyCellsAs="gap" minAxisType="custom" maxAxisType="custom">
+          <x14:colorSeries theme="7" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7" tint="0.79998168889431442"/>
+          <x14:colorFirst theme="7" tint="-0.249977111117893"/>
+          <x14:colorLast theme="7" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="7" tint="-0.499984740745262"/>
+          <x14:colorLow theme="7" tint="-0.499984740745262"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Considerations!L7:DH7</xm:f>
+              <xm:sqref>J7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup manualMax="1" manualMin="0" lineWeight="2.25" displayEmptyCellsAs="gap" minAxisType="custom" maxAxisType="custom">
+          <x14:colorSeries theme="7" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7" tint="0.79998168889431442"/>
+          <x14:colorFirst theme="7" tint="-0.249977111117893"/>
+          <x14:colorLast theme="7" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="7" tint="-0.499984740745262"/>
+          <x14:colorLow theme="7" tint="-0.499984740745262"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Considerations!L2:DH2</xm:f>
+              <xm:sqref>J2</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Considerations!N3:DJ3</xm:f>
-              <xm:sqref>I3</xm:sqref>
+              <xm:f>Considerations!L3:DH3</xm:f>
+              <xm:sqref>J3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Considerations!N4:DJ4</xm:f>
-              <xm:sqref>I4</xm:sqref>
+              <xm:f>Considerations!L4:DH4</xm:f>
+              <xm:sqref>J4</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Considerations!N5:DJ5</xm:f>
-              <xm:sqref>I5</xm:sqref>
+              <xm:f>Considerations!L5:DH5</xm:f>
+              <xm:sqref>J5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Considerations!N6:DJ6</xm:f>
-              <xm:sqref>I6</xm:sqref>
+              <xm:f>Considerations!L6:DH6</xm:f>
+              <xm:sqref>J6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Considerations!L9:DH9</xm:f>
+              <xm:sqref>J9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="23" customWidth="1"/>
+    <col min="5" max="13" width="9.140625" style="23"/>
+    <col min="14" max="114" width="2.140625" style="23" customWidth="1"/>
+    <col min="115" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="N2" s="20" t="e">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O2" s="20" t="e">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="20" t="e">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q2" s="20" t="e">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" s="20" t="e">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S2" s="20" t="e">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T2" s="20" t="e">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U2" s="20" t="e">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V2" s="20" t="e">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W2" s="20" t="e">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X2" s="20" t="e">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y2" s="20" t="e">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z2" s="20" t="e">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA2" s="20" t="e">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB2" s="20" t="e">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC2" s="20" t="e">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD2" s="20" t="e">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE2" s="20" t="e">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF2" s="20" t="e">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG2" s="20" t="e">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH2" s="20" t="e">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI2" s="20" t="e">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ2" s="20" t="e">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK2" s="20" t="e">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL2" s="20" t="e">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM2" s="20" t="e">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN2" s="20" t="e">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO2" s="20" t="e">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP2" s="20" t="e">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ2" s="20" t="e">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR2" s="20" t="e">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS2" s="20" t="e">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT2" s="20" t="e">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU2" s="20" t="e">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV2" s="20" t="e">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW2" s="20" t="e">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX2" s="20" t="e">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY2" s="20" t="e">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="20" t="e">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA2" s="20" t="e">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB2" s="20" t="e">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC2" s="20" t="e">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD2" s="20" t="e">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE2" s="20" t="e">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF2" s="20" t="e">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG2" s="20" t="e">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH2" s="20" t="e">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI2" s="20" t="e">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ2" s="20" t="e">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK2" s="20" t="e">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL2" s="20" t="e">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM2" s="20" t="e">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN2" s="20" t="e">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO2" s="20" t="e">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP2" s="20" t="e">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ2" s="20" t="e">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BR2" s="20" t="e">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BS2" s="20" t="e">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BT2" s="20" t="e">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BU2" s="20" t="e">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BV2" s="20" t="e">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BW2" s="20" t="e">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BX2" s="20" t="e">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY2" s="20" t="e">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BZ2" s="20" t="e">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CA2" s="20" t="e">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CB2" s="20" t="e">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CC2" s="20" t="e">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CD2" s="20" t="e">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CE2" s="20" t="e">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CF2" s="20" t="e">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CG2" s="20" t="e">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CH2" s="20" t="e">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CI2" s="20" t="e">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ2" s="20" t="e">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK2" s="20" t="e">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CL2" s="20" t="e">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM2" s="20" t="e">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN2" s="20" t="e">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO2" s="20" t="e">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP2" s="20" t="e">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CQ2" s="20" t="e">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CR2" s="20" t="e">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CS2" s="20" t="e">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CT2" s="20" t="e">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CU2" s="20" t="e">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CV2" s="20" t="e">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CW2" s="20" t="e">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CX2" s="20" t="e">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CY2" s="20" t="e">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CZ2" s="20" t="e">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DA2" s="20" t="e">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DB2" s="20" t="e">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DC2" s="20" t="e">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD2" s="20" t="e">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE2" s="20" t="e">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF2" s="20" t="e">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG2" s="20" t="e">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH2" s="20" t="e">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI2" s="20" t="e">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ2" s="20" t="e">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C2, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="N3" s="20">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="O3" s="20">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.23511191035940016</v>
+      </c>
+      <c r="P3" s="20">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.26849457148160016</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.30021679704260013</v>
+      </c>
+      <c r="R3" s="20">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.33034532618240009</v>
+      </c>
+      <c r="S3" s="20">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.35894486562500011</v>
+      </c>
+      <c r="T3" s="20">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.38607813136640007</v>
+      </c>
+      <c r="U3" s="20">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.41180588993060024</v>
+      </c>
+      <c r="V3" s="20">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.43618699919359999</v>
+      </c>
+      <c r="W3" s="20">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.45927844877539997</v>
+      </c>
+      <c r="X3" s="20">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.48113539999999994</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.50181122542339995</v>
+      </c>
+      <c r="Z3" s="20">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.5213575479296001</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.53982427939459998</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.55725965891840012</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.57371029062500012</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.58922118103040011</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.60383577597860005</v>
+      </c>
+      <c r="AF3" s="20">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.61759599714559998</v>
+      </c>
+      <c r="AG3" s="20">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.63054227811139996</v>
+      </c>
+      <c r="AH3" s="20">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.6427136</v>
+      </c>
+      <c r="AI3" s="20">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.65414752668739995</v>
+      </c>
+      <c r="AJ3" s="20">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.66488023957760001</v>
+      </c>
+      <c r="AK3" s="20">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.67494657194660013</v>
+      </c>
+      <c r="AL3" s="20">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.68438004285440002</v>
+      </c>
+      <c r="AM3" s="20">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.69321289062500002</v>
+      </c>
+      <c r="AN3" s="20">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.70147610589440001</v>
+      </c>
+      <c r="AO3" s="20">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.70919946422660007</v>
+      </c>
+      <c r="AP3" s="20">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.71641155829760006</v>
+      </c>
+      <c r="AQ3" s="20">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.72313982964740009</v>
+      </c>
+      <c r="AR3" s="20">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.72941060000000002</v>
+      </c>
+      <c r="AS3" s="20">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.73524910215140005</v>
+      </c>
+      <c r="AT3" s="20">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.7406795104256001</v>
+      </c>
+      <c r="AU3" s="20">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.74572497069860011</v>
+      </c>
+      <c r="AV3" s="20">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.75040762999040012</v>
+      </c>
+      <c r="AW3" s="20">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.75474866562499998</v>
+      </c>
+      <c r="AX3" s="20">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.75876831395840005</v>
+      </c>
+      <c r="AY3" s="20">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.76248589867460004</v>
+      </c>
+      <c r="AZ3" s="20">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.76591985864959999</v>
+      </c>
+      <c r="BA3" s="20">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.76908777538340001</v>
+      </c>
+      <c r="BB3" s="20">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.77200640000000009</v>
+      </c>
+      <c r="BC3" s="20">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.77469167981539999</v>
+      </c>
+      <c r="BD3" s="20">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.77715878447359998</v>
+      </c>
+      <c r="BE3" s="20">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.77942213165060004</v>
+      </c>
+      <c r="BF3" s="20">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78149541232640007</v>
+      </c>
+      <c r="BG3" s="20">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78339161562500004</v>
+      </c>
+      <c r="BH3" s="20">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78512305322240006</v>
+      </c>
+      <c r="BI3" s="20">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78670138332260009</v>
+      </c>
+      <c r="BJ3" s="20">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78813763420159999</v>
+      </c>
+      <c r="BK3" s="20">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.78944222731940006</v>
+      </c>
+      <c r="BL3" s="20">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79062500000000002</v>
+      </c>
+      <c r="BM3" s="20">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79169522767940004</v>
+      </c>
+      <c r="BN3" s="20">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79266164572160003</v>
+      </c>
+      <c r="BO3" s="20">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79353247080260003</v>
+      </c>
+      <c r="BP3" s="20">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79431542186240001</v>
+      </c>
+      <c r="BQ3" s="20">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79501774062500008</v>
+      </c>
+      <c r="BR3" s="20">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79564621168640004</v>
+      </c>
+      <c r="BS3" s="20">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79620718217060005</v>
+      </c>
+      <c r="BT3" s="20">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79670658095360003</v>
+      </c>
+      <c r="BU3" s="20">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79714993745540008</v>
+      </c>
+      <c r="BV3" s="20">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.7975424000000001</v>
+      </c>
+      <c r="BW3" s="20">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79788875374340007</v>
+      </c>
+      <c r="BX3" s="20">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79819343816960009</v>
+      </c>
+      <c r="BY3" s="20">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79846056415460009</v>
+      </c>
+      <c r="BZ3" s="20">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79869393059839999</v>
+      </c>
+      <c r="CA3" s="20">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.798897040625</v>
+      </c>
+      <c r="CB3" s="20">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.7990731173504001</v>
+      </c>
+      <c r="CC3" s="20">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79922511921860007</v>
+      </c>
+      <c r="CD3" s="20">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79935575490560007</v>
+      </c>
+      <c r="CE3" s="20">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79946749779140003</v>
+      </c>
+      <c r="CF3" s="20">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79956260000000001</v>
+      </c>
+      <c r="CG3" s="20">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79964310600740007</v>
+      </c>
+      <c r="CH3" s="20">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79971086581760009</v>
+      </c>
+      <c r="CI3" s="20">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79976754770660008</v>
+      </c>
+      <c r="CJ3" s="20">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79981465053440004</v>
+      </c>
+      <c r="CK3" s="20">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79985351562500007</v>
+      </c>
+      <c r="CL3" s="20">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.7998853382144</v>
+      </c>
+      <c r="CM3" s="20">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79991117846660009</v>
+      </c>
+      <c r="CN3" s="20">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79993197205760003</v>
+      </c>
+      <c r="CO3" s="20">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79994854032740004</v>
+      </c>
+      <c r="CP3" s="20">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79996160000000005</v>
+      </c>
+      <c r="CQ3" s="20">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79997177247140006</v>
+      </c>
+      <c r="CR3" s="20">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79997959266560004</v>
+      </c>
+      <c r="CS3" s="20">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79998551745860003</v>
+      </c>
+      <c r="CT3" s="20">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79998993367040006</v>
+      </c>
+      <c r="CU3" s="20">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.799993165625</v>
+      </c>
+      <c r="CV3" s="20">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999548227840001</v>
+      </c>
+      <c r="CW3" s="20">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999710391459999</v>
+      </c>
+      <c r="CX3" s="20">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999820840960001</v>
+      </c>
+      <c r="CY3" s="20">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999893706340008</v>
+      </c>
+      <c r="CZ3" s="20">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999940000000003</v>
+      </c>
+      <c r="DA3" s="20">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.7999996811354001</v>
+      </c>
+      <c r="DB3" s="20">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999984271360003</v>
+      </c>
+      <c r="DC3" s="20">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999992941060005</v>
+      </c>
+      <c r="DD3" s="20">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999997200640005</v>
+      </c>
+      <c r="DE3" s="20">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999999062500005</v>
+      </c>
+      <c r="DF3" s="20">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999999754240003</v>
+      </c>
+      <c r="DG3" s="20">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999999956260004</v>
+      </c>
+      <c r="DH3" s="20">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999999996160009</v>
+      </c>
+      <c r="DI3" s="20">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.79999999999940008</v>
+      </c>
+      <c r="DJ3" s="20">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C3, Considerations!$A:$A, 0))</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="N4" s="20">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="20">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.76488808964059984</v>
+      </c>
+      <c r="P4" s="20">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.73150542851839995</v>
+      </c>
+      <c r="Q4" s="20">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.69978320295739993</v>
+      </c>
+      <c r="R4" s="20">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.66965467381759991</v>
+      </c>
+      <c r="S4" s="20">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.64105513437499995</v>
+      </c>
+      <c r="T4" s="20">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.61392186863359999</v>
+      </c>
+      <c r="U4" s="20">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.58819411006939981</v>
+      </c>
+      <c r="V4" s="20">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.56381300080640007</v>
+      </c>
+      <c r="W4" s="20">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.54072155122460008</v>
+      </c>
+      <c r="X4" s="20">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.51886460000000012</v>
+      </c>
+      <c r="Y4" s="20">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.49818877457660005</v>
+      </c>
+      <c r="Z4" s="20">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.47864245207039996</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.46017572060540002</v>
+      </c>
+      <c r="AB4" s="20">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.44274034108159988</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.42628970937499994</v>
+      </c>
+      <c r="AD4" s="20">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.41077881896959989</v>
+      </c>
+      <c r="AE4" s="20">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.39616422402139995</v>
+      </c>
+      <c r="AF4" s="20">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.38240400285440013</v>
+      </c>
+      <c r="AG4" s="20">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.3694577218886001</v>
+      </c>
+      <c r="AH4" s="20">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.35728640000000012</v>
+      </c>
+      <c r="AI4" s="20">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.34585247331260005</v>
+      </c>
+      <c r="AJ4" s="20">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.33511976042240005</v>
+      </c>
+      <c r="AK4" s="20">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.32505342805339998</v>
+      </c>
+      <c r="AL4" s="20">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.31561995714559998</v>
+      </c>
+      <c r="AM4" s="20">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.30678710937499998</v>
+      </c>
+      <c r="AN4" s="20">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.29852389410559999</v>
+      </c>
+      <c r="AO4" s="20">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.29080053577339998</v>
+      </c>
+      <c r="AP4" s="20">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2835884417024</v>
+      </c>
+      <c r="AQ4" s="20">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.27686017035260002</v>
+      </c>
+      <c r="AR4" s="20">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.27058939999999998</v>
+      </c>
+      <c r="AS4" s="20">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.26475089784859995</v>
+      </c>
+      <c r="AT4" s="20">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.25932048957439996</v>
+      </c>
+      <c r="AU4" s="20">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2542750293014</v>
+      </c>
+      <c r="AV4" s="20">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.24959237000959997</v>
+      </c>
+      <c r="AW4" s="20">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.24525133437500002</v>
+      </c>
+      <c r="AX4" s="20">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2412316860416</v>
+      </c>
+      <c r="AY4" s="20">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.23751410132540002</v>
+      </c>
+      <c r="AZ4" s="20">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.23408014135040001</v>
+      </c>
+      <c r="BA4" s="20">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.23091222461659999</v>
+      </c>
+      <c r="BB4" s="20">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.22799360000000002</v>
+      </c>
+      <c r="BC4" s="20">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.22530832018460004</v>
+      </c>
+      <c r="BD4" s="20">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.22284121552640002</v>
+      </c>
+      <c r="BE4" s="20">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.22057786834940002</v>
+      </c>
+      <c r="BF4" s="20">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.21850458767360001</v>
+      </c>
+      <c r="BG4" s="20">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.21660838437500002</v>
+      </c>
+      <c r="BH4" s="20">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.21487694677760003</v>
+      </c>
+      <c r="BI4" s="20">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.21329861667740002</v>
+      </c>
+      <c r="BJ4" s="20">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.21186236579840001</v>
+      </c>
+      <c r="BK4" s="20">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2105577726806</v>
+      </c>
+      <c r="BL4" s="20">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20937500000000001</v>
+      </c>
+      <c r="BM4" s="20">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20830477232060002</v>
+      </c>
+      <c r="BN4" s="20">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2073383542784</v>
+      </c>
+      <c r="BO4" s="20">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20646752919740002</v>
+      </c>
+      <c r="BP4" s="20">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20568457813759999</v>
+      </c>
+      <c r="BQ4" s="20">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.204982259375</v>
+      </c>
+      <c r="BR4" s="20">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20435378831360002</v>
+      </c>
+      <c r="BS4" s="20">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20379281782940001</v>
+      </c>
+      <c r="BT4" s="20">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20329341904640003</v>
+      </c>
+      <c r="BU4" s="20">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2028500625446</v>
+      </c>
+      <c r="BV4" s="20">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20245760000000002</v>
+      </c>
+      <c r="BW4" s="20">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20211124625660001</v>
+      </c>
+      <c r="BX4" s="20">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20180656183040002</v>
+      </c>
+      <c r="BY4" s="20">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20153943584540002</v>
+      </c>
+      <c r="BZ4" s="20">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20130606940160001</v>
+      </c>
+      <c r="CA4" s="20">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.201102959375</v>
+      </c>
+      <c r="CB4" s="20">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20092688264960001</v>
+      </c>
+      <c r="CC4" s="20">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20077488078140002</v>
+      </c>
+      <c r="CD4" s="20">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20064424509440001</v>
+      </c>
+      <c r="CE4" s="20">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2005325022086</v>
+      </c>
+      <c r="CF4" s="20">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20043740000000002</v>
+      </c>
+      <c r="CG4" s="20">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20035689399260001</v>
+      </c>
+      <c r="CH4" s="20">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20028913418240002</v>
+      </c>
+      <c r="CI4" s="20">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2002324522934</v>
+      </c>
+      <c r="CJ4" s="20">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20018534946560002</v>
+      </c>
+      <c r="CK4" s="20">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20014648437500002</v>
+      </c>
+      <c r="CL4" s="20">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2001146617856</v>
+      </c>
+      <c r="CM4" s="20">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20008882153340002</v>
+      </c>
+      <c r="CN4" s="20">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000680279424</v>
+      </c>
+      <c r="CO4" s="20">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20005145967260002</v>
+      </c>
+      <c r="CP4" s="20">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20003840000000001</v>
+      </c>
+      <c r="CQ4" s="20">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000282275286</v>
+      </c>
+      <c r="CR4" s="20">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20002040733440002</v>
+      </c>
+      <c r="CS4" s="20">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000144825414</v>
+      </c>
+      <c r="CT4" s="20">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000100663296</v>
+      </c>
+      <c r="CU4" s="20">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.200006834375</v>
+      </c>
+      <c r="CV4" s="20">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000451772160002</v>
+      </c>
+      <c r="CW4" s="20">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000289608540001</v>
+      </c>
+      <c r="CX4" s="20">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000179159040002</v>
+      </c>
+      <c r="CY4" s="20">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000010629366</v>
+      </c>
+      <c r="CZ4" s="20">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000006</v>
+      </c>
+      <c r="DA4" s="20">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000031886460001</v>
+      </c>
+      <c r="DB4" s="20">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000001572864</v>
+      </c>
+      <c r="DC4" s="20">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000000705894</v>
+      </c>
+      <c r="DD4" s="20">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000000279936</v>
+      </c>
+      <c r="DE4" s="20">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000000937500001</v>
+      </c>
+      <c r="DF4" s="20">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000000245760002</v>
+      </c>
+      <c r="DG4" s="20">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000000043740002</v>
+      </c>
+      <c r="DH4" s="20">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.20000000003840002</v>
+      </c>
+      <c r="DI4" s="20">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2000000000006</v>
+      </c>
+      <c r="DJ4" s="20">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C4, Considerations!$A:$A, 0))</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="N5" s="20" t="e">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O5" s="20" t="e">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P5" s="20" t="e">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q5" s="20" t="e">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R5" s="20" t="e">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S5" s="20" t="e">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T5" s="20" t="e">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U5" s="20" t="e">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V5" s="20" t="e">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W5" s="20" t="e">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="X5" s="20" t="e">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y5" s="20" t="e">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z5" s="20" t="e">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA5" s="20" t="e">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB5" s="20" t="e">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC5" s="20" t="e">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD5" s="20" t="e">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE5" s="20" t="e">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF5" s="20" t="e">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG5" s="20" t="e">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH5" s="20" t="e">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI5" s="20" t="e">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ5" s="20" t="e">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK5" s="20" t="e">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL5" s="20" t="e">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM5" s="20" t="e">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN5" s="20" t="e">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO5" s="20" t="e">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP5" s="20" t="e">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ5" s="20" t="e">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR5" s="20" t="e">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS5" s="20" t="e">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT5" s="20" t="e">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU5" s="20" t="e">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV5" s="20" t="e">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW5" s="20" t="e">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX5" s="20" t="e">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY5" s="20" t="e">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ5" s="20" t="e">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA5" s="20" t="e">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB5" s="20" t="e">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC5" s="20" t="e">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD5" s="20" t="e">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE5" s="20" t="e">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF5" s="20" t="e">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG5" s="20" t="e">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH5" s="20" t="e">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BI5" s="20" t="e">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ5" s="20" t="e">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK5" s="20" t="e">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BL5" s="20" t="e">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM5" s="20" t="e">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN5" s="20" t="e">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO5" s="20" t="e">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP5" s="20" t="e">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BQ5" s="20" t="e">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BR5" s="20" t="e">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BS5" s="20" t="e">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BT5" s="20" t="e">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BU5" s="20" t="e">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BV5" s="20" t="e">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BW5" s="20" t="e">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BX5" s="20" t="e">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY5" s="20" t="e">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BZ5" s="20" t="e">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CA5" s="20" t="e">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CB5" s="20" t="e">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CC5" s="20" t="e">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CD5" s="20" t="e">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CE5" s="20" t="e">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CF5" s="20" t="e">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CG5" s="20" t="e">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CH5" s="20" t="e">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CI5" s="20" t="e">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CJ5" s="20" t="e">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK5" s="20" t="e">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CL5" s="20" t="e">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM5" s="20" t="e">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN5" s="20" t="e">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO5" s="20" t="e">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP5" s="20" t="e">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CQ5" s="20" t="e">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CR5" s="20" t="e">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CS5" s="20" t="e">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CT5" s="20" t="e">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CU5" s="20" t="e">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CV5" s="20" t="e">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CW5" s="20" t="e">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CX5" s="20" t="e">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CY5" s="20" t="e">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CZ5" s="20" t="e">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DA5" s="20" t="e">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DB5" s="20" t="e">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DC5" s="20" t="e">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DD5" s="20" t="e">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DE5" s="20" t="e">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF5" s="20" t="e">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DG5" s="20" t="e">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH5" s="20" t="e">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DI5" s="20" t="e">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ5" s="20" t="e">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C5, Considerations!$A:$A, 0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="N6" s="20">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="20">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.76488808964059984</v>
+      </c>
+      <c r="P6" s="20">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.73150542851839995</v>
+      </c>
+      <c r="Q6" s="20">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.69978320295739993</v>
+      </c>
+      <c r="R6" s="20">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.66965467381759991</v>
+      </c>
+      <c r="S6" s="20">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.64105513437499995</v>
+      </c>
+      <c r="T6" s="20">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.61392186863359999</v>
+      </c>
+      <c r="U6" s="20">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.58819411006939981</v>
+      </c>
+      <c r="V6" s="20">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.56381300080640007</v>
+      </c>
+      <c r="W6" s="20">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.54072155122460008</v>
+      </c>
+      <c r="X6" s="20">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.51886460000000012</v>
+      </c>
+      <c r="Y6" s="20">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.49818877457660005</v>
+      </c>
+      <c r="Z6" s="20">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.47864245207039996</v>
+      </c>
+      <c r="AA6" s="20">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.46017572060540002</v>
+      </c>
+      <c r="AB6" s="20">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.44274034108159988</v>
+      </c>
+      <c r="AC6" s="20">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.42628970937499994</v>
+      </c>
+      <c r="AD6" s="20">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.41077881896959989</v>
+      </c>
+      <c r="AE6" s="20">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.39616422402139995</v>
+      </c>
+      <c r="AF6" s="20">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.38240400285440013</v>
+      </c>
+      <c r="AG6" s="20">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.3694577218886001</v>
+      </c>
+      <c r="AH6" s="20">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.35728640000000012</v>
+      </c>
+      <c r="AI6" s="20">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.34585247331260005</v>
+      </c>
+      <c r="AJ6" s="20">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.33511976042240005</v>
+      </c>
+      <c r="AK6" s="20">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.32505342805339998</v>
+      </c>
+      <c r="AL6" s="20">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.31561995714559998</v>
+      </c>
+      <c r="AM6" s="20">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.30678710937499998</v>
+      </c>
+      <c r="AN6" s="20">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.29852389410559999</v>
+      </c>
+      <c r="AO6" s="20">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.29080053577339998</v>
+      </c>
+      <c r="AP6" s="20">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2835884417024</v>
+      </c>
+      <c r="AQ6" s="20">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.27686017035260002</v>
+      </c>
+      <c r="AR6" s="20">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.27058939999999998</v>
+      </c>
+      <c r="AS6" s="20">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.26475089784859995</v>
+      </c>
+      <c r="AT6" s="20">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.25932048957439996</v>
+      </c>
+      <c r="AU6" s="20">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2542750293014</v>
+      </c>
+      <c r="AV6" s="20">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.24959237000959997</v>
+      </c>
+      <c r="AW6" s="20">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.24525133437500002</v>
+      </c>
+      <c r="AX6" s="20">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2412316860416</v>
+      </c>
+      <c r="AY6" s="20">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.23751410132540002</v>
+      </c>
+      <c r="AZ6" s="20">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.23408014135040001</v>
+      </c>
+      <c r="BA6" s="20">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.23091222461659999</v>
+      </c>
+      <c r="BB6" s="20">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.22799360000000002</v>
+      </c>
+      <c r="BC6" s="20">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.22530832018460004</v>
+      </c>
+      <c r="BD6" s="20">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.22284121552640002</v>
+      </c>
+      <c r="BE6" s="20">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.22057786834940002</v>
+      </c>
+      <c r="BF6" s="20">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.21850458767360001</v>
+      </c>
+      <c r="BG6" s="20">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.21660838437500002</v>
+      </c>
+      <c r="BH6" s="20">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.21487694677760003</v>
+      </c>
+      <c r="BI6" s="20">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.21329861667740002</v>
+      </c>
+      <c r="BJ6" s="20">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.21186236579840001</v>
+      </c>
+      <c r="BK6" s="20">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2105577726806</v>
+      </c>
+      <c r="BL6" s="20">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20937500000000001</v>
+      </c>
+      <c r="BM6" s="20">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20830477232060002</v>
+      </c>
+      <c r="BN6" s="20">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2073383542784</v>
+      </c>
+      <c r="BO6" s="20">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20646752919740002</v>
+      </c>
+      <c r="BP6" s="20">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20568457813759999</v>
+      </c>
+      <c r="BQ6" s="20">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.204982259375</v>
+      </c>
+      <c r="BR6" s="20">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20435378831360002</v>
+      </c>
+      <c r="BS6" s="20">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20379281782940001</v>
+      </c>
+      <c r="BT6" s="20">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20329341904640003</v>
+      </c>
+      <c r="BU6" s="20">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2028500625446</v>
+      </c>
+      <c r="BV6" s="20">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20245760000000002</v>
+      </c>
+      <c r="BW6" s="20">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20211124625660001</v>
+      </c>
+      <c r="BX6" s="20">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20180656183040002</v>
+      </c>
+      <c r="BY6" s="20">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20153943584540002</v>
+      </c>
+      <c r="BZ6" s="20">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20130606940160001</v>
+      </c>
+      <c r="CA6" s="20">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.201102959375</v>
+      </c>
+      <c r="CB6" s="20">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20092688264960001</v>
+      </c>
+      <c r="CC6" s="20">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20077488078140002</v>
+      </c>
+      <c r="CD6" s="20">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20064424509440001</v>
+      </c>
+      <c r="CE6" s="20">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2005325022086</v>
+      </c>
+      <c r="CF6" s="20">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20043740000000002</v>
+      </c>
+      <c r="CG6" s="20">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20035689399260001</v>
+      </c>
+      <c r="CH6" s="20">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20028913418240002</v>
+      </c>
+      <c r="CI6" s="20">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2002324522934</v>
+      </c>
+      <c r="CJ6" s="20">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20018534946560002</v>
+      </c>
+      <c r="CK6" s="20">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20014648437500002</v>
+      </c>
+      <c r="CL6" s="20">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2001146617856</v>
+      </c>
+      <c r="CM6" s="20">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20008882153340002</v>
+      </c>
+      <c r="CN6" s="20">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000680279424</v>
+      </c>
+      <c r="CO6" s="20">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20005145967260002</v>
+      </c>
+      <c r="CP6" s="20">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20003840000000001</v>
+      </c>
+      <c r="CQ6" s="20">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000282275286</v>
+      </c>
+      <c r="CR6" s="20">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20002040733440002</v>
+      </c>
+      <c r="CS6" s="20">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000144825414</v>
+      </c>
+      <c r="CT6" s="20">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000100663296</v>
+      </c>
+      <c r="CU6" s="20">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.200006834375</v>
+      </c>
+      <c r="CV6" s="20">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000451772160002</v>
+      </c>
+      <c r="CW6" s="20">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000289608540001</v>
+      </c>
+      <c r="CX6" s="20">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000179159040002</v>
+      </c>
+      <c r="CY6" s="20">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000010629366</v>
+      </c>
+      <c r="CZ6" s="20">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000006</v>
+      </c>
+      <c r="DA6" s="20">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000031886460001</v>
+      </c>
+      <c r="DB6" s="20">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000001572864</v>
+      </c>
+      <c r="DC6" s="20">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000000705894</v>
+      </c>
+      <c r="DD6" s="20">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000000279936</v>
+      </c>
+      <c r="DE6" s="20">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000000937500001</v>
+      </c>
+      <c r="DF6" s="20">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000000245760002</v>
+      </c>
+      <c r="DG6" s="20">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000000043740002</v>
+      </c>
+      <c r="DH6" s="20">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.20000000003840002</v>
+      </c>
+      <c r="DI6" s="20">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2000000000006</v>
+      </c>
+      <c r="DJ6" s="20">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C6, Considerations!$A:$A, 0))</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="N7" s="20">
+        <f>INDEX(Considerations!L:L, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="O7" s="20">
+        <f>INDEX(Considerations!M:M, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.23511191035940016</v>
+      </c>
+      <c r="P7" s="20">
+        <f>INDEX(Considerations!N:N, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.26849457148160016</v>
+      </c>
+      <c r="Q7" s="20">
+        <f>INDEX(Considerations!O:O, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.30021679704260013</v>
+      </c>
+      <c r="R7" s="20">
+        <f>INDEX(Considerations!P:P, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.33034532618240009</v>
+      </c>
+      <c r="S7" s="20">
+        <f>INDEX(Considerations!Q:Q, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.35894486562500011</v>
+      </c>
+      <c r="T7" s="20">
+        <f>INDEX(Considerations!R:R, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.38607813136640007</v>
+      </c>
+      <c r="U7" s="20">
+        <f>INDEX(Considerations!S:S, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.41180588993060024</v>
+      </c>
+      <c r="V7" s="20">
+        <f>INDEX(Considerations!T:T, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.43618699919359999</v>
+      </c>
+      <c r="W7" s="20">
+        <f>INDEX(Considerations!U:U, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.45927844877539997</v>
+      </c>
+      <c r="X7" s="20">
+        <f>INDEX(Considerations!V:V, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.48113539999999994</v>
+      </c>
+      <c r="Y7" s="20">
+        <f>INDEX(Considerations!W:W, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.50181122542339995</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>INDEX(Considerations!X:X, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.5213575479296001</v>
+      </c>
+      <c r="AA7" s="20">
+        <f>INDEX(Considerations!Y:Y, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.53982427939459998</v>
+      </c>
+      <c r="AB7" s="20">
+        <f>INDEX(Considerations!Z:Z, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.55725965891840012</v>
+      </c>
+      <c r="AC7" s="20">
+        <f>INDEX(Considerations!AA:AA, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.57371029062500012</v>
+      </c>
+      <c r="AD7" s="20">
+        <f>INDEX(Considerations!AB:AB, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.58922118103040011</v>
+      </c>
+      <c r="AE7" s="20">
+        <f>INDEX(Considerations!AC:AC, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.60383577597860005</v>
+      </c>
+      <c r="AF7" s="20">
+        <f>INDEX(Considerations!AD:AD, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.61759599714559998</v>
+      </c>
+      <c r="AG7" s="20">
+        <f>INDEX(Considerations!AE:AE, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.63054227811139996</v>
+      </c>
+      <c r="AH7" s="20">
+        <f>INDEX(Considerations!AF:AF, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.6427136</v>
+      </c>
+      <c r="AI7" s="20">
+        <f>INDEX(Considerations!AG:AG, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.65414752668739995</v>
+      </c>
+      <c r="AJ7" s="20">
+        <f>INDEX(Considerations!AH:AH, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.66488023957760001</v>
+      </c>
+      <c r="AK7" s="20">
+        <f>INDEX(Considerations!AI:AI, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.67494657194660013</v>
+      </c>
+      <c r="AL7" s="20">
+        <f>INDEX(Considerations!AJ:AJ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.68438004285440002</v>
+      </c>
+      <c r="AM7" s="20">
+        <f>INDEX(Considerations!AK:AK, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.69321289062500002</v>
+      </c>
+      <c r="AN7" s="20">
+        <f>INDEX(Considerations!AL:AL, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.70147610589440001</v>
+      </c>
+      <c r="AO7" s="20">
+        <f>INDEX(Considerations!AM:AM, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.70919946422660007</v>
+      </c>
+      <c r="AP7" s="20">
+        <f>INDEX(Considerations!AN:AN, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.71641155829760006</v>
+      </c>
+      <c r="AQ7" s="20">
+        <f>INDEX(Considerations!AO:AO, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.72313982964740009</v>
+      </c>
+      <c r="AR7" s="20">
+        <f>INDEX(Considerations!AP:AP, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.72941060000000002</v>
+      </c>
+      <c r="AS7" s="20">
+        <f>INDEX(Considerations!AQ:AQ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.73524910215140005</v>
+      </c>
+      <c r="AT7" s="20">
+        <f>INDEX(Considerations!AR:AR, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.7406795104256001</v>
+      </c>
+      <c r="AU7" s="20">
+        <f>INDEX(Considerations!AS:AS, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.74572497069860011</v>
+      </c>
+      <c r="AV7" s="20">
+        <f>INDEX(Considerations!AT:AT, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.75040762999040012</v>
+      </c>
+      <c r="AW7" s="20">
+        <f>INDEX(Considerations!AU:AU, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.75474866562499998</v>
+      </c>
+      <c r="AX7" s="20">
+        <f>INDEX(Considerations!AV:AV, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.75876831395840005</v>
+      </c>
+      <c r="AY7" s="20">
+        <f>INDEX(Considerations!AW:AW, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.76248589867460004</v>
+      </c>
+      <c r="AZ7" s="20">
+        <f>INDEX(Considerations!AX:AX, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.76591985864959999</v>
+      </c>
+      <c r="BA7" s="20">
+        <f>INDEX(Considerations!AY:AY, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.76908777538340001</v>
+      </c>
+      <c r="BB7" s="20">
+        <f>INDEX(Considerations!AZ:AZ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.77200640000000009</v>
+      </c>
+      <c r="BC7" s="20">
+        <f>INDEX(Considerations!BA:BA, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.77469167981539999</v>
+      </c>
+      <c r="BD7" s="20">
+        <f>INDEX(Considerations!BB:BB, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.77715878447359998</v>
+      </c>
+      <c r="BE7" s="20">
+        <f>INDEX(Considerations!BC:BC, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.77942213165060004</v>
+      </c>
+      <c r="BF7" s="20">
+        <f>INDEX(Considerations!BD:BD, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78149541232640007</v>
+      </c>
+      <c r="BG7" s="20">
+        <f>INDEX(Considerations!BE:BE, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78339161562500004</v>
+      </c>
+      <c r="BH7" s="20">
+        <f>INDEX(Considerations!BF:BF, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78512305322240006</v>
+      </c>
+      <c r="BI7" s="20">
+        <f>INDEX(Considerations!BG:BG, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78670138332260009</v>
+      </c>
+      <c r="BJ7" s="20">
+        <f>INDEX(Considerations!BH:BH, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78813763420159999</v>
+      </c>
+      <c r="BK7" s="20">
+        <f>INDEX(Considerations!BI:BI, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.78944222731940006</v>
+      </c>
+      <c r="BL7" s="20">
+        <f>INDEX(Considerations!BJ:BJ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79062500000000002</v>
+      </c>
+      <c r="BM7" s="20">
+        <f>INDEX(Considerations!BK:BK, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79169522767940004</v>
+      </c>
+      <c r="BN7" s="20">
+        <f>INDEX(Considerations!BL:BL, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79266164572160003</v>
+      </c>
+      <c r="BO7" s="20">
+        <f>INDEX(Considerations!BM:BM, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79353247080260003</v>
+      </c>
+      <c r="BP7" s="20">
+        <f>INDEX(Considerations!BN:BN, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79431542186240001</v>
+      </c>
+      <c r="BQ7" s="20">
+        <f>INDEX(Considerations!BO:BO, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79501774062500008</v>
+      </c>
+      <c r="BR7" s="20">
+        <f>INDEX(Considerations!BP:BP, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79564621168640004</v>
+      </c>
+      <c r="BS7" s="20">
+        <f>INDEX(Considerations!BQ:BQ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79620718217060005</v>
+      </c>
+      <c r="BT7" s="20">
+        <f>INDEX(Considerations!BR:BR, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79670658095360003</v>
+      </c>
+      <c r="BU7" s="20">
+        <f>INDEX(Considerations!BS:BS, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79714993745540008</v>
+      </c>
+      <c r="BV7" s="20">
+        <f>INDEX(Considerations!BT:BT, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.7975424000000001</v>
+      </c>
+      <c r="BW7" s="20">
+        <f>INDEX(Considerations!BU:BU, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79788875374340007</v>
+      </c>
+      <c r="BX7" s="20">
+        <f>INDEX(Considerations!BV:BV, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79819343816960009</v>
+      </c>
+      <c r="BY7" s="20">
+        <f>INDEX(Considerations!BW:BW, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79846056415460009</v>
+      </c>
+      <c r="BZ7" s="20">
+        <f>INDEX(Considerations!BX:BX, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79869393059839999</v>
+      </c>
+      <c r="CA7" s="20">
+        <f>INDEX(Considerations!BY:BY, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.798897040625</v>
+      </c>
+      <c r="CB7" s="20">
+        <f>INDEX(Considerations!BZ:BZ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.7990731173504001</v>
+      </c>
+      <c r="CC7" s="20">
+        <f>INDEX(Considerations!CA:CA, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79922511921860007</v>
+      </c>
+      <c r="CD7" s="20">
+        <f>INDEX(Considerations!CB:CB, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79935575490560007</v>
+      </c>
+      <c r="CE7" s="20">
+        <f>INDEX(Considerations!CC:CC, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79946749779140003</v>
+      </c>
+      <c r="CF7" s="20">
+        <f>INDEX(Considerations!CD:CD, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79956260000000001</v>
+      </c>
+      <c r="CG7" s="20">
+        <f>INDEX(Considerations!CE:CE, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79964310600740007</v>
+      </c>
+      <c r="CH7" s="20">
+        <f>INDEX(Considerations!CF:CF, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79971086581760009</v>
+      </c>
+      <c r="CI7" s="20">
+        <f>INDEX(Considerations!CG:CG, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79976754770660008</v>
+      </c>
+      <c r="CJ7" s="20">
+        <f>INDEX(Considerations!CH:CH, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79981465053440004</v>
+      </c>
+      <c r="CK7" s="20">
+        <f>INDEX(Considerations!CI:CI, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79985351562500007</v>
+      </c>
+      <c r="CL7" s="20">
+        <f>INDEX(Considerations!CJ:CJ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.7998853382144</v>
+      </c>
+      <c r="CM7" s="20">
+        <f>INDEX(Considerations!CK:CK, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79991117846660009</v>
+      </c>
+      <c r="CN7" s="20">
+        <f>INDEX(Considerations!CL:CL, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79993197205760003</v>
+      </c>
+      <c r="CO7" s="20">
+        <f>INDEX(Considerations!CM:CM, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79994854032740004</v>
+      </c>
+      <c r="CP7" s="20">
+        <f>INDEX(Considerations!CN:CN, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79996160000000005</v>
+      </c>
+      <c r="CQ7" s="20">
+        <f>INDEX(Considerations!CO:CO, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79997177247140006</v>
+      </c>
+      <c r="CR7" s="20">
+        <f>INDEX(Considerations!CP:CP, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79997959266560004</v>
+      </c>
+      <c r="CS7" s="20">
+        <f>INDEX(Considerations!CQ:CQ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79998551745860003</v>
+      </c>
+      <c r="CT7" s="20">
+        <f>INDEX(Considerations!CR:CR, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79998993367040006</v>
+      </c>
+      <c r="CU7" s="20">
+        <f>INDEX(Considerations!CS:CS, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.799993165625</v>
+      </c>
+      <c r="CV7" s="20">
+        <f>INDEX(Considerations!CT:CT, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999548227840001</v>
+      </c>
+      <c r="CW7" s="20">
+        <f>INDEX(Considerations!CU:CU, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999710391459999</v>
+      </c>
+      <c r="CX7" s="20">
+        <f>INDEX(Considerations!CV:CV, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999820840960001</v>
+      </c>
+      <c r="CY7" s="20">
+        <f>INDEX(Considerations!CW:CW, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999893706340008</v>
+      </c>
+      <c r="CZ7" s="20">
+        <f>INDEX(Considerations!CX:CX, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999940000000003</v>
+      </c>
+      <c r="DA7" s="20">
+        <f>INDEX(Considerations!CY:CY, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.7999996811354001</v>
+      </c>
+      <c r="DB7" s="20">
+        <f>INDEX(Considerations!CZ:CZ, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999984271360003</v>
+      </c>
+      <c r="DC7" s="20">
+        <f>INDEX(Considerations!DA:DA, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999992941060005</v>
+      </c>
+      <c r="DD7" s="20">
+        <f>INDEX(Considerations!DB:DB, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999997200640005</v>
+      </c>
+      <c r="DE7" s="20">
+        <f>INDEX(Considerations!DC:DC, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999999062500005</v>
+      </c>
+      <c r="DF7" s="20">
+        <f>INDEX(Considerations!DD:DD, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999999754240003</v>
+      </c>
+      <c r="DG7" s="20">
+        <f>INDEX(Considerations!DE:DE, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999999956260004</v>
+      </c>
+      <c r="DH7" s="20">
+        <f>INDEX(Considerations!DF:DF, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999999996160009</v>
+      </c>
+      <c r="DI7" s="20">
+        <f>INDEX(Considerations!DG:DG, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.79999999999940008</v>
+      </c>
+      <c r="DJ7" s="20">
+        <f>INDEX(Considerations!DH:DH, MATCH(Choices!$C7, Considerations!$A:$A, 0))</f>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+      <formula1>lstConsiderations</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup manualMax="1" manualMin="0" lineWeight="2.25" displayEmptyCellsAs="gap" minAxisType="custom" maxAxisType="custom">
+          <x14:colorSeries theme="7" tint="0.39997558519241921"/>
+          <x14:colorNegative theme="0" tint="-0.499984740745262"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="7" tint="0.79998168889431442"/>
+          <x14:colorFirst theme="7" tint="-0.249977111117893"/>
+          <x14:colorLast theme="7" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="7" tint="-0.499984740745262"/>
+          <x14:colorLow theme="7" tint="-0.499984740745262"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Choices!N2:DJ2</xm:f>
+              <xm:sqref>D2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Choices!N3:DJ3</xm:f>
+              <xm:sqref>D3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Choices!N4:DJ4</xm:f>
+              <xm:sqref>D4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Choices!N5:DJ5</xm:f>
+              <xm:sqref>D5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Choices!N6:DJ6</xm:f>
+              <xm:sqref>D6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Choices!N7:DJ7</xm:f>
+              <xm:sqref>D7</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
